--- a/data/analysis/social_media_analytics/pivot_tables/governance_simpl-region/museum_activity_groups__var2-governance_simpl-region.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance_simpl-region/museum_activity_groups__var2-governance_simpl-region.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -476,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:41">
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -514,111 +517,165 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:41">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AO2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="E4">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -633,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>7</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -648,16 +705,16 @@
         <v>14.3</v>
       </c>
       <c r="O4">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -672,157 +729,235 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X4">
         <v>7</v>
       </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="AB4">
+        <v>-1.6</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>7</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>70474</v>
+        <v>44345</v>
       </c>
       <c r="D5">
-        <v>1381.8</v>
+        <v>869.5</v>
       </c>
       <c r="E5">
-        <v>2352.6</v>
+        <v>1391.1</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>661</v>
+        <v>479</v>
       </c>
       <c r="I5">
-        <v>1306.5</v>
+        <v>1032.5</v>
       </c>
       <c r="J5">
-        <v>12139</v>
+        <v>6379</v>
       </c>
       <c r="K5">
         <v>51</v>
       </c>
       <c r="L5">
-        <v>1718.9</v>
+        <v>1137.1</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N5">
-        <v>80.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="O5">
         <v>0.6</v>
       </c>
       <c r="P5">
-        <v>28973</v>
+        <v>6498</v>
       </c>
       <c r="Q5">
-        <v>568.1</v>
+        <v>127.4</v>
       </c>
       <c r="R5">
-        <v>790.8</v>
+        <v>194.1</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="U5">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="V5">
-        <v>848.5</v>
+        <v>120</v>
       </c>
       <c r="W5">
-        <v>3252</v>
+        <v>768</v>
       </c>
       <c r="X5">
         <v>51</v>
       </c>
       <c r="Y5">
+        <v>166.6</v>
+      </c>
+      <c r="Z5">
+        <v>39</v>
+      </c>
+      <c r="AA5">
+        <v>76.5</v>
+      </c>
+      <c r="AB5">
+        <v>0.6</v>
+      </c>
+      <c r="AC5">
+        <v>28973</v>
+      </c>
+      <c r="AD5">
+        <v>568.1</v>
+      </c>
+      <c r="AE5">
+        <v>790.8</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>273</v>
+      </c>
+      <c r="AI5">
+        <v>848.5</v>
+      </c>
+      <c r="AJ5">
+        <v>3252</v>
+      </c>
+      <c r="AK5">
+        <v>51</v>
+      </c>
+      <c r="AL5">
         <v>965.8</v>
       </c>
-      <c r="Z5">
+      <c r="AM5">
         <v>30</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
         <v>58.8</v>
       </c>
-      <c r="AB5">
+      <c r="AO5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>118184</v>
+        <v>59161</v>
       </c>
       <c r="D6">
-        <v>2188.6</v>
+        <v>1095.6</v>
       </c>
       <c r="E6">
-        <v>3186.3</v>
+        <v>1350.1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>900</v>
+        <v>577.5</v>
       </c>
       <c r="I6">
-        <v>2635.2</v>
+        <v>1816</v>
       </c>
       <c r="J6">
-        <v>14626</v>
+        <v>5468</v>
       </c>
       <c r="K6">
         <v>54</v>
       </c>
       <c r="L6">
-        <v>2748.5</v>
+        <v>1516.9</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N6">
-        <v>79.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="O6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P6">
-        <v>22047</v>
+        <v>17693</v>
       </c>
       <c r="Q6">
-        <v>408.3</v>
+        <v>327.6</v>
       </c>
       <c r="R6">
-        <v>670.7</v>
+        <v>634.8</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -831,43 +966,82 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>72.5</v>
       </c>
       <c r="V6">
-        <v>736.5</v>
+        <v>341</v>
       </c>
       <c r="W6">
-        <v>3292</v>
+        <v>3432</v>
       </c>
       <c r="X6">
         <v>54</v>
       </c>
       <c r="Y6">
+        <v>453.7</v>
+      </c>
+      <c r="Z6">
+        <v>39</v>
+      </c>
+      <c r="AA6">
+        <v>72.2</v>
+      </c>
+      <c r="AB6">
+        <v>0.5</v>
+      </c>
+      <c r="AC6">
+        <v>22047</v>
+      </c>
+      <c r="AD6">
+        <v>408.3</v>
+      </c>
+      <c r="AE6">
+        <v>670.7</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>736.5</v>
+      </c>
+      <c r="AJ6">
+        <v>3292</v>
+      </c>
+      <c r="AK6">
+        <v>54</v>
+      </c>
+      <c r="AL6">
         <v>958.6</v>
       </c>
-      <c r="Z6">
+      <c r="AM6">
         <v>23</v>
       </c>
-      <c r="AA6">
+      <c r="AN6">
         <v>42.6</v>
       </c>
-      <c r="AB6">
+      <c r="AO6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="D7">
-        <v>680.7</v>
+        <v>544.3</v>
       </c>
       <c r="E7">
-        <v>1178.9</v>
+        <v>942.8</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -879,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1021</v>
+        <v>816.5</v>
       </c>
       <c r="J7">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7">
-        <v>2042</v>
+        <v>1633</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -897,16 +1071,16 @@
         <v>33.3</v>
       </c>
       <c r="O7">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="P7">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="Q7">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="R7">
-        <v>389.7</v>
+        <v>237.3</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -918,16 +1092,16 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>337.5</v>
+        <v>205.5</v>
       </c>
       <c r="W7">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="X7">
         <v>3</v>
       </c>
       <c r="Y7">
-        <v>675</v>
+        <v>411</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -936,127 +1110,205 @@
         <v>33.3</v>
       </c>
       <c r="AB7">
+        <v>-0.9</v>
+      </c>
+      <c r="AC7">
+        <v>675</v>
+      </c>
+      <c r="AD7">
+        <v>225</v>
+      </c>
+      <c r="AE7">
+        <v>389.7</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>337.5</v>
+      </c>
+      <c r="AJ7">
+        <v>675</v>
+      </c>
+      <c r="AK7">
+        <v>3</v>
+      </c>
+      <c r="AL7">
+        <v>675</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>33.3</v>
+      </c>
+      <c r="AO7">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>339976</v>
+        <v>134991</v>
       </c>
       <c r="D8">
-        <v>6071</v>
+        <v>2410.6</v>
       </c>
       <c r="E8">
-        <v>7929.1</v>
+        <v>3850.3</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>797.8</v>
+        <v>3.8</v>
       </c>
       <c r="H8">
-        <v>2107.5</v>
+        <v>1382</v>
       </c>
       <c r="I8">
-        <v>6853.8</v>
+        <v>2927</v>
       </c>
       <c r="J8">
-        <v>27937</v>
+        <v>19900</v>
       </c>
       <c r="K8">
         <v>56</v>
       </c>
       <c r="L8">
-        <v>6799.5</v>
+        <v>3214.1</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N8">
-        <v>89.3</v>
+        <v>75</v>
       </c>
       <c r="O8">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="P8">
-        <v>41054</v>
+        <v>98246</v>
       </c>
       <c r="Q8">
-        <v>733.1</v>
+        <v>1754.4</v>
       </c>
       <c r="R8">
-        <v>1194.1</v>
+        <v>3465.8</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U8">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="V8">
-        <v>1054</v>
+        <v>1953.2</v>
       </c>
       <c r="W8">
-        <v>7154</v>
+        <v>18016</v>
       </c>
       <c r="X8">
         <v>56</v>
       </c>
       <c r="Y8">
+        <v>2232.9</v>
+      </c>
+      <c r="Z8">
+        <v>44</v>
+      </c>
+      <c r="AA8">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="AB8">
+        <v>0.7</v>
+      </c>
+      <c r="AC8">
+        <v>41054</v>
+      </c>
+      <c r="AD8">
+        <v>733.1</v>
+      </c>
+      <c r="AE8">
+        <v>1194.1</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>286</v>
+      </c>
+      <c r="AI8">
+        <v>1054</v>
+      </c>
+      <c r="AJ8">
+        <v>7154</v>
+      </c>
+      <c r="AK8">
+        <v>56</v>
+      </c>
+      <c r="AL8">
         <v>1324.3</v>
       </c>
-      <c r="Z8">
+      <c r="AM8">
         <v>31</v>
       </c>
-      <c r="AA8">
+      <c r="AN8">
         <v>55.4</v>
       </c>
-      <c r="AB8">
+      <c r="AO8">
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:41">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>36125</v>
+        <v>20678</v>
       </c>
       <c r="D9">
-        <v>1245.7</v>
+        <v>713</v>
       </c>
       <c r="E9">
-        <v>2433.8</v>
+        <v>721.5</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="H9">
-        <v>534</v>
+        <v>479</v>
       </c>
       <c r="I9">
-        <v>1289</v>
+        <v>988</v>
       </c>
       <c r="J9">
-        <v>13075</v>
+        <v>2868</v>
       </c>
       <c r="K9">
         <v>29</v>
       </c>
       <c r="L9">
-        <v>1570.7</v>
+        <v>899</v>
       </c>
       <c r="M9">
         <v>23</v>
@@ -1065,100 +1317,139 @@
         <v>79.3</v>
       </c>
       <c r="O9">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="P9">
-        <v>14054</v>
+        <v>4333</v>
       </c>
       <c r="Q9">
-        <v>484.6</v>
+        <v>149.4</v>
       </c>
       <c r="R9">
-        <v>467.5</v>
+        <v>218</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U9">
-        <v>461</v>
+        <v>47</v>
       </c>
       <c r="V9">
-        <v>728</v>
+        <v>220</v>
       </c>
       <c r="W9">
-        <v>1774</v>
+        <v>1010</v>
       </c>
       <c r="X9">
         <v>29</v>
       </c>
       <c r="Y9">
+        <v>188.4</v>
+      </c>
+      <c r="Z9">
+        <v>23</v>
+      </c>
+      <c r="AA9">
+        <v>79.3</v>
+      </c>
+      <c r="AB9">
+        <v>0.7</v>
+      </c>
+      <c r="AC9">
+        <v>14054</v>
+      </c>
+      <c r="AD9">
+        <v>484.6</v>
+      </c>
+      <c r="AE9">
+        <v>467.5</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>461</v>
+      </c>
+      <c r="AI9">
+        <v>728</v>
+      </c>
+      <c r="AJ9">
+        <v>1774</v>
+      </c>
+      <c r="AK9">
+        <v>29</v>
+      </c>
+      <c r="AL9">
         <v>702.7</v>
       </c>
-      <c r="Z9">
+      <c r="AM9">
         <v>20</v>
       </c>
-      <c r="AA9">
+      <c r="AN9">
         <v>69</v>
       </c>
-      <c r="AB9">
+      <c r="AO9">
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>156939</v>
+        <v>73415</v>
       </c>
       <c r="D10">
-        <v>2149.8</v>
+        <v>1005.7</v>
       </c>
       <c r="E10">
-        <v>2800.5</v>
+        <v>1201.5</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1310</v>
+        <v>724</v>
       </c>
       <c r="I10">
-        <v>3255</v>
+        <v>1667</v>
       </c>
       <c r="J10">
-        <v>15154</v>
+        <v>5214</v>
       </c>
       <c r="K10">
         <v>73</v>
       </c>
       <c r="L10">
-        <v>2660</v>
+        <v>1498.3</v>
       </c>
       <c r="M10">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="N10">
-        <v>80.8</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="O10">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P10">
-        <v>50245</v>
+        <v>18504</v>
       </c>
       <c r="Q10">
-        <v>688.3</v>
+        <v>253.5</v>
       </c>
       <c r="R10">
-        <v>1106.7</v>
+        <v>347.3</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1167,43 +1458,82 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="V10">
-        <v>920</v>
+        <v>441</v>
       </c>
       <c r="W10">
-        <v>6327</v>
+        <v>1397</v>
       </c>
       <c r="X10">
         <v>73</v>
       </c>
       <c r="Y10">
+        <v>362.8</v>
+      </c>
+      <c r="Z10">
+        <v>51</v>
+      </c>
+      <c r="AA10">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="AB10">
+        <v>0.4</v>
+      </c>
+      <c r="AC10">
+        <v>50245</v>
+      </c>
+      <c r="AD10">
+        <v>688.3</v>
+      </c>
+      <c r="AE10">
+        <v>1106.7</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>214</v>
+      </c>
+      <c r="AI10">
+        <v>920</v>
+      </c>
+      <c r="AJ10">
+        <v>6327</v>
+      </c>
+      <c r="AK10">
+        <v>73</v>
+      </c>
+      <c r="AL10">
         <v>1256.1</v>
       </c>
-      <c r="Z10">
+      <c r="AM10">
         <v>40</v>
       </c>
-      <c r="AA10">
+      <c r="AN10">
         <v>54.8</v>
       </c>
-      <c r="AB10">
+      <c r="AO10">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>99992</v>
+        <v>22160</v>
       </c>
       <c r="D11">
-        <v>2940.9</v>
+        <v>651.8</v>
       </c>
       <c r="E11">
-        <v>6305.3</v>
+        <v>2551.9</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1212,37 +1542,37 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1543.5</v>
+        <v>386</v>
       </c>
       <c r="J11">
-        <v>25383</v>
+        <v>14888</v>
       </c>
       <c r="K11">
         <v>34</v>
       </c>
       <c r="L11">
-        <v>5555.1</v>
+        <v>1846.7</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N11">
-        <v>52.9</v>
+        <v>35.3</v>
       </c>
       <c r="O11">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="P11">
-        <v>22806</v>
+        <v>12319</v>
       </c>
       <c r="Q11">
-        <v>670.8</v>
+        <v>362.3</v>
       </c>
       <c r="R11">
-        <v>1830.5</v>
+        <v>1783.8</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1254,40 +1584,79 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="W11">
-        <v>6887</v>
+        <v>10421</v>
       </c>
       <c r="X11">
         <v>34</v>
       </c>
       <c r="Y11">
+        <v>1026.6</v>
+      </c>
+      <c r="Z11">
+        <v>12</v>
+      </c>
+      <c r="AA11">
+        <v>35.3</v>
+      </c>
+      <c r="AB11">
+        <v>-0.8</v>
+      </c>
+      <c r="AC11">
+        <v>22806</v>
+      </c>
+      <c r="AD11">
+        <v>670.8</v>
+      </c>
+      <c r="AE11">
+        <v>1830.5</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>6887</v>
+      </c>
+      <c r="AK11">
+        <v>34</v>
+      </c>
+      <c r="AL11">
         <v>2850.8</v>
       </c>
-      <c r="Z11">
+      <c r="AM11">
         <v>8</v>
       </c>
-      <c r="AA11">
+      <c r="AN11">
         <v>23.5</v>
       </c>
-      <c r="AB11">
+      <c r="AO11">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:41">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>273727</v>
+        <v>112332</v>
       </c>
       <c r="D12">
-        <v>2012.7</v>
+        <v>826</v>
       </c>
       <c r="E12">
-        <v>6447.2</v>
+        <v>1570.7</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1296,37 +1665,37 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1774.8</v>
+        <v>916</v>
       </c>
       <c r="J12">
-        <v>68140</v>
+        <v>8541</v>
       </c>
       <c r="K12">
         <v>136</v>
       </c>
       <c r="L12">
-        <v>3699</v>
+        <v>1702</v>
       </c>
       <c r="M12">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N12">
-        <v>54.4</v>
+        <v>48.5</v>
       </c>
       <c r="O12">
         <v>-0.4</v>
       </c>
       <c r="P12">
-        <v>41868</v>
+        <v>37235</v>
       </c>
       <c r="Q12">
-        <v>307.9</v>
+        <v>273.8</v>
       </c>
       <c r="R12">
-        <v>779.3</v>
+        <v>780.2</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1338,163 +1707,241 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>74.5</v>
+        <v>158.8</v>
       </c>
       <c r="W12">
-        <v>6448</v>
+        <v>6050</v>
       </c>
       <c r="X12">
         <v>136</v>
       </c>
       <c r="Y12">
+        <v>564.2</v>
+      </c>
+      <c r="Z12">
+        <v>66</v>
+      </c>
+      <c r="AA12">
+        <v>48.5</v>
+      </c>
+      <c r="AB12">
+        <v>-0.3</v>
+      </c>
+      <c r="AC12">
+        <v>41868</v>
+      </c>
+      <c r="AD12">
+        <v>307.9</v>
+      </c>
+      <c r="AE12">
+        <v>779.3</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>74.5</v>
+      </c>
+      <c r="AJ12">
+        <v>6448</v>
+      </c>
+      <c r="AK12">
+        <v>136</v>
+      </c>
+      <c r="AL12">
         <v>1131.6</v>
       </c>
-      <c r="Z12">
+      <c r="AM12">
         <v>37</v>
       </c>
-      <c r="AA12">
+      <c r="AN12">
         <v>27.2</v>
       </c>
-      <c r="AB12">
+      <c r="AO12">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:41">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>190333</v>
+        <v>96622</v>
       </c>
       <c r="D13">
-        <v>2091.6</v>
+        <v>1061.8</v>
       </c>
       <c r="E13">
-        <v>3788</v>
+        <v>1912</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>74.5</v>
+        <v>9.5</v>
       </c>
       <c r="H13">
-        <v>514</v>
+        <v>412</v>
       </c>
       <c r="I13">
-        <v>2233</v>
+        <v>1529</v>
       </c>
       <c r="J13">
-        <v>18015</v>
+        <v>14118</v>
       </c>
       <c r="K13">
         <v>91</v>
       </c>
       <c r="L13">
-        <v>2504.4</v>
+        <v>1380.3</v>
       </c>
       <c r="M13">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13">
-        <v>83.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="O13">
         <v>0.7</v>
       </c>
       <c r="P13">
-        <v>49549</v>
+        <v>24980</v>
       </c>
       <c r="Q13">
-        <v>544.5</v>
+        <v>274.5</v>
       </c>
       <c r="R13">
-        <v>1006.1</v>
+        <v>573.9</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="V13">
-        <v>757.5</v>
+        <v>259.5</v>
       </c>
       <c r="W13">
-        <v>6047</v>
+        <v>3471</v>
       </c>
       <c r="X13">
         <v>91</v>
       </c>
       <c r="Y13">
+        <v>362</v>
+      </c>
+      <c r="Z13">
+        <v>69</v>
+      </c>
+      <c r="AA13">
+        <v>75.8</v>
+      </c>
+      <c r="AB13">
+        <v>0.6</v>
+      </c>
+      <c r="AC13">
+        <v>49549</v>
+      </c>
+      <c r="AD13">
+        <v>544.5</v>
+      </c>
+      <c r="AE13">
+        <v>1006.1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>757.5</v>
+      </c>
+      <c r="AJ13">
+        <v>6047</v>
+      </c>
+      <c r="AK13">
+        <v>91</v>
+      </c>
+      <c r="AL13">
         <v>1126.1</v>
       </c>
-      <c r="Z13">
+      <c r="AM13">
         <v>44</v>
       </c>
-      <c r="AA13">
+      <c r="AN13">
         <v>48.4</v>
       </c>
-      <c r="AB13">
+      <c r="AO13">
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>77038</v>
+        <v>48122</v>
       </c>
       <c r="D14">
-        <v>1284</v>
+        <v>802</v>
       </c>
       <c r="E14">
-        <v>1832.7</v>
+        <v>946.6</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>770</v>
+        <v>451.5</v>
       </c>
       <c r="I14">
-        <v>1763.8</v>
+        <v>1373.2</v>
       </c>
       <c r="J14">
-        <v>10869</v>
+        <v>4076</v>
       </c>
       <c r="K14">
         <v>60</v>
       </c>
       <c r="L14">
-        <v>1674.7</v>
+        <v>1119.1</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N14">
-        <v>76.7</v>
+        <v>71.7</v>
       </c>
       <c r="O14">
         <v>0.5</v>
       </c>
       <c r="P14">
-        <v>31355</v>
+        <v>10143</v>
       </c>
       <c r="Q14">
-        <v>522.6</v>
+        <v>169</v>
       </c>
       <c r="R14">
-        <v>744.5</v>
+        <v>242.6</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1503,82 +1950,121 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="V14">
-        <v>802.5</v>
+        <v>183.2</v>
       </c>
       <c r="W14">
-        <v>3100</v>
+        <v>1050</v>
       </c>
       <c r="X14">
         <v>60</v>
       </c>
       <c r="Y14">
+        <v>241.5</v>
+      </c>
+      <c r="Z14">
+        <v>42</v>
+      </c>
+      <c r="AA14">
+        <v>70</v>
+      </c>
+      <c r="AB14">
+        <v>0.4</v>
+      </c>
+      <c r="AC14">
+        <v>31355</v>
+      </c>
+      <c r="AD14">
+        <v>522.6</v>
+      </c>
+      <c r="AE14">
+        <v>744.5</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>802.5</v>
+      </c>
+      <c r="AJ14">
+        <v>3100</v>
+      </c>
+      <c r="AK14">
+        <v>60</v>
+      </c>
+      <c r="AL14">
         <v>1161.3</v>
       </c>
-      <c r="Z14">
+      <c r="AM14">
         <v>27</v>
       </c>
-      <c r="AA14">
+      <c r="AN14">
         <v>45</v>
       </c>
-      <c r="AB14">
+      <c r="AO14">
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:41">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
-        <v>214437</v>
+        <v>48891</v>
       </c>
       <c r="D15">
-        <v>3403.8</v>
+        <v>776</v>
       </c>
       <c r="E15">
-        <v>6798.1</v>
+        <v>1208.8</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1035</v>
+        <v>56</v>
       </c>
       <c r="I15">
-        <v>2925</v>
+        <v>1211.5</v>
       </c>
       <c r="J15">
-        <v>30621</v>
+        <v>5793</v>
       </c>
       <c r="K15">
         <v>63</v>
       </c>
       <c r="L15">
-        <v>4467.4</v>
+        <v>1396.9</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N15">
-        <v>76.2</v>
+        <v>55.6</v>
       </c>
       <c r="O15">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="P15">
-        <v>68378</v>
+        <v>6148</v>
       </c>
       <c r="Q15">
-        <v>1085.4</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="R15">
-        <v>2553.7</v>
+        <v>167.6</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1587,82 +2073,121 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V15">
-        <v>944</v>
+        <v>166.5</v>
       </c>
       <c r="W15">
-        <v>13336</v>
+        <v>938</v>
       </c>
       <c r="X15">
         <v>63</v>
       </c>
       <c r="Y15">
+        <v>170.8</v>
+      </c>
+      <c r="Z15">
+        <v>36</v>
+      </c>
+      <c r="AA15">
+        <v>57.1</v>
+      </c>
+      <c r="AB15">
+        <v>-0</v>
+      </c>
+      <c r="AC15">
+        <v>68378</v>
+      </c>
+      <c r="AD15">
+        <v>1085.4</v>
+      </c>
+      <c r="AE15">
+        <v>2553.7</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>944</v>
+      </c>
+      <c r="AJ15">
+        <v>13336</v>
+      </c>
+      <c r="AK15">
+        <v>63</v>
+      </c>
+      <c r="AL15">
         <v>2205.7</v>
       </c>
-      <c r="Z15">
+      <c r="AM15">
         <v>31</v>
       </c>
-      <c r="AA15">
+      <c r="AN15">
         <v>49.2</v>
       </c>
-      <c r="AB15">
+      <c r="AO15">
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:41">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>176890</v>
+        <v>80143</v>
       </c>
       <c r="D16">
-        <v>2948.2</v>
+        <v>1335.7</v>
       </c>
       <c r="E16">
-        <v>5631.9</v>
+        <v>3208.6</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>693.5</v>
+        <v>234</v>
       </c>
       <c r="I16">
-        <v>2213</v>
+        <v>1353.5</v>
       </c>
       <c r="J16">
-        <v>22952</v>
+        <v>18330</v>
       </c>
       <c r="K16">
         <v>60</v>
       </c>
       <c r="L16">
-        <v>3845.4</v>
+        <v>2109</v>
       </c>
       <c r="M16">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N16">
-        <v>76.7</v>
+        <v>63.3</v>
       </c>
       <c r="O16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P16">
-        <v>30747</v>
+        <v>15536</v>
       </c>
       <c r="Q16">
-        <v>512.4</v>
+        <v>258.9</v>
       </c>
       <c r="R16">
-        <v>863.6</v>
+        <v>726</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1671,43 +2196,82 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>225</v>
+        <v>41.5</v>
       </c>
       <c r="V16">
-        <v>774</v>
+        <v>180</v>
       </c>
       <c r="W16">
-        <v>5694</v>
+        <v>4588</v>
       </c>
       <c r="X16">
         <v>60</v>
       </c>
       <c r="Y16">
+        <v>398.4</v>
+      </c>
+      <c r="Z16">
+        <v>39</v>
+      </c>
+      <c r="AA16">
+        <v>65</v>
+      </c>
+      <c r="AB16">
+        <v>0.2</v>
+      </c>
+      <c r="AC16">
+        <v>30747</v>
+      </c>
+      <c r="AD16">
+        <v>512.4</v>
+      </c>
+      <c r="AE16">
+        <v>863.6</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>225</v>
+      </c>
+      <c r="AI16">
+        <v>774</v>
+      </c>
+      <c r="AJ16">
+        <v>5694</v>
+      </c>
+      <c r="AK16">
+        <v>60</v>
+      </c>
+      <c r="AL16">
         <v>931.7</v>
       </c>
-      <c r="Z16">
+      <c r="AM16">
         <v>33</v>
       </c>
-      <c r="AA16">
+      <c r="AN16">
         <v>55</v>
       </c>
-      <c r="AB16">
+      <c r="AO16">
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:41">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>198507</v>
+        <v>101624</v>
       </c>
       <c r="D17">
-        <v>2545</v>
+        <v>1302.9</v>
       </c>
       <c r="E17">
-        <v>3742.1</v>
+        <v>1818.1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1716,37 +2280,37 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>971.5</v>
+        <v>578</v>
       </c>
       <c r="I17">
-        <v>3873.8</v>
+        <v>1830.2</v>
       </c>
       <c r="J17">
-        <v>17348</v>
+        <v>8460</v>
       </c>
       <c r="K17">
         <v>78</v>
       </c>
       <c r="L17">
-        <v>3544.8</v>
+        <v>1992.6</v>
       </c>
       <c r="M17">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N17">
-        <v>71.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="O17">
         <v>0.3</v>
       </c>
       <c r="P17">
-        <v>44291</v>
+        <v>63597</v>
       </c>
       <c r="Q17">
-        <v>567.8</v>
+        <v>815.3</v>
       </c>
       <c r="R17">
-        <v>1034.6</v>
+        <v>1865.1</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1755,45 +2319,84 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>44.5</v>
+        <v>112.5</v>
       </c>
       <c r="V17">
-        <v>754.5</v>
+        <v>589.8</v>
       </c>
       <c r="W17">
-        <v>5746</v>
+        <v>12827</v>
       </c>
       <c r="X17">
         <v>78</v>
       </c>
       <c r="Y17">
+        <v>1223</v>
+      </c>
+      <c r="Z17">
+        <v>52</v>
+      </c>
+      <c r="AA17">
+        <v>66.7</v>
+      </c>
+      <c r="AB17">
+        <v>0.3</v>
+      </c>
+      <c r="AC17">
+        <v>44291</v>
+      </c>
+      <c r="AD17">
+        <v>567.8</v>
+      </c>
+      <c r="AE17">
+        <v>1034.6</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>44.5</v>
+      </c>
+      <c r="AI17">
+        <v>754.5</v>
+      </c>
+      <c r="AJ17">
+        <v>5746</v>
+      </c>
+      <c r="AK17">
+        <v>78</v>
+      </c>
+      <c r="AL17">
         <v>1135.7</v>
       </c>
-      <c r="Z17">
+      <c r="AM17">
         <v>39</v>
       </c>
-      <c r="AA17">
+      <c r="AN17">
         <v>50</v>
       </c>
-      <c r="AB17">
+      <c r="AO17">
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:41">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>1752</v>
+        <v>1284</v>
       </c>
       <c r="D18">
-        <v>109.5</v>
+        <v>80.2</v>
       </c>
       <c r="E18">
-        <v>411.6</v>
+        <v>299.3</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1808,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="K18">
         <v>16</v>
       </c>
       <c r="L18">
-        <v>876</v>
+        <v>642</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -1823,16 +2426,16 @@
         <v>12.5</v>
       </c>
       <c r="O18">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="P18">
-        <v>842</v>
+        <v>463</v>
       </c>
       <c r="Q18">
-        <v>52.6</v>
+        <v>28.9</v>
       </c>
       <c r="R18">
-        <v>161</v>
+        <v>111.6</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1847,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>619</v>
+        <v>447</v>
       </c>
       <c r="X18">
         <v>16</v>
       </c>
       <c r="Y18">
-        <v>421</v>
+        <v>231.5</v>
       </c>
       <c r="Z18">
         <v>2</v>
@@ -1862,22 +2465,61 @@
         <v>12.5</v>
       </c>
       <c r="AB18">
+        <v>-1.6</v>
+      </c>
+      <c r="AC18">
+        <v>842</v>
+      </c>
+      <c r="AD18">
+        <v>52.6</v>
+      </c>
+      <c r="AE18">
+        <v>161</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>619</v>
+      </c>
+      <c r="AK18">
+        <v>16</v>
+      </c>
+      <c r="AL18">
+        <v>421</v>
+      </c>
+      <c r="AM18">
+        <v>2</v>
+      </c>
+      <c r="AN18">
+        <v>12.5</v>
+      </c>
+      <c r="AO18">
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:41">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>178741</v>
+        <v>81712</v>
       </c>
       <c r="D19">
-        <v>1027.2</v>
+        <v>469.6</v>
       </c>
       <c r="E19">
-        <v>3203.4</v>
+        <v>1555.9</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1886,37 +2528,37 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I19">
-        <v>430</v>
+        <v>298.8</v>
       </c>
       <c r="J19">
-        <v>25152</v>
+        <v>17279</v>
       </c>
       <c r="K19">
         <v>174</v>
       </c>
       <c r="L19">
-        <v>1718.7</v>
+        <v>860.1</v>
       </c>
       <c r="M19">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="N19">
-        <v>59.8</v>
+        <v>54.6</v>
       </c>
       <c r="O19">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P19">
-        <v>35743</v>
+        <v>33762</v>
       </c>
       <c r="Q19">
-        <v>205.4</v>
+        <v>194</v>
       </c>
       <c r="R19">
-        <v>428.6</v>
+        <v>726.5</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1925,43 +2567,82 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V19">
-        <v>233.5</v>
+        <v>60.8</v>
       </c>
       <c r="W19">
-        <v>2696</v>
+        <v>7809</v>
       </c>
       <c r="X19">
         <v>174</v>
       </c>
       <c r="Y19">
+        <v>348.1</v>
+      </c>
+      <c r="Z19">
+        <v>97</v>
+      </c>
+      <c r="AA19">
+        <v>55.7</v>
+      </c>
+      <c r="AB19">
+        <v>-0.1</v>
+      </c>
+      <c r="AC19">
+        <v>35743</v>
+      </c>
+      <c r="AD19">
+        <v>205.4</v>
+      </c>
+      <c r="AE19">
+        <v>428.6</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>233.5</v>
+      </c>
+      <c r="AJ19">
+        <v>2696</v>
+      </c>
+      <c r="AK19">
+        <v>174</v>
+      </c>
+      <c r="AL19">
         <v>674.4</v>
       </c>
-      <c r="Z19">
+      <c r="AM19">
         <v>53</v>
       </c>
-      <c r="AA19">
+      <c r="AN19">
         <v>30.5</v>
       </c>
-      <c r="AB19">
+      <c r="AO19">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:41">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>271810</v>
+        <v>100222</v>
       </c>
       <c r="D20">
-        <v>1065.9</v>
+        <v>393</v>
       </c>
       <c r="E20">
-        <v>3933.3</v>
+        <v>1144.2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1970,37 +2651,37 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I20">
-        <v>487</v>
+        <v>323</v>
       </c>
       <c r="J20">
-        <v>40453</v>
+        <v>14162</v>
       </c>
       <c r="K20">
         <v>255</v>
       </c>
       <c r="L20">
-        <v>1667.5</v>
+        <v>668.1</v>
       </c>
       <c r="M20">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="N20">
-        <v>63.9</v>
+        <v>58.8</v>
       </c>
       <c r="O20">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>41111</v>
+        <v>33349</v>
       </c>
       <c r="Q20">
-        <v>161.2</v>
+        <v>130.8</v>
       </c>
       <c r="R20">
-        <v>502.8</v>
+        <v>551.1</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2009,43 +2690,82 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V20">
-        <v>6</v>
+        <v>54.5</v>
       </c>
       <c r="W20">
-        <v>6335</v>
+        <v>6662</v>
       </c>
       <c r="X20">
         <v>255</v>
       </c>
       <c r="Y20">
+        <v>220.9</v>
+      </c>
+      <c r="Z20">
+        <v>151</v>
+      </c>
+      <c r="AA20">
+        <v>59.2</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>41111</v>
+      </c>
+      <c r="AD20">
+        <v>161.2</v>
+      </c>
+      <c r="AE20">
+        <v>502.8</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>6</v>
+      </c>
+      <c r="AJ20">
+        <v>6335</v>
+      </c>
+      <c r="AK20">
+        <v>255</v>
+      </c>
+      <c r="AL20">
         <v>642.4</v>
       </c>
-      <c r="Z20">
+      <c r="AM20">
         <v>64</v>
       </c>
-      <c r="AA20">
+      <c r="AN20">
         <v>25.1</v>
       </c>
-      <c r="AB20">
+      <c r="AO20">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:41">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>70938</v>
+        <v>49307</v>
       </c>
       <c r="D21">
-        <v>5911.5</v>
+        <v>4108.9</v>
       </c>
       <c r="E21">
-        <v>19805.5</v>
+        <v>13695</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2057,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.8</v>
+        <v>28.2</v>
       </c>
       <c r="J21">
-        <v>68775</v>
+        <v>47571</v>
       </c>
       <c r="K21">
         <v>12</v>
       </c>
       <c r="L21">
-        <v>17734.5</v>
+        <v>12326.8</v>
       </c>
       <c r="M21">
         <v>4</v>
@@ -2075,16 +2795,16 @@
         <v>33.3</v>
       </c>
       <c r="O21">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>21313</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1776.1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>6018.6</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2096,76 +2816,115 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>20884</v>
       </c>
       <c r="X21">
         <v>12</v>
       </c>
+      <c r="Y21">
+        <v>5328.2</v>
+      </c>
       <c r="Z21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AB21">
+        <v>-0.9</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>12</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:41">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>441161</v>
+        <v>175408</v>
       </c>
       <c r="D22">
-        <v>2595.1</v>
+        <v>1031.8</v>
       </c>
       <c r="E22">
-        <v>5147.9</v>
+        <v>1607.4</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>907.5</v>
+        <v>449.5</v>
       </c>
       <c r="I22">
-        <v>2500.8</v>
+        <v>1458.2</v>
       </c>
       <c r="J22">
-        <v>38400</v>
+        <v>11096</v>
       </c>
       <c r="K22">
         <v>170</v>
       </c>
       <c r="L22">
-        <v>3267.9</v>
+        <v>1437.8</v>
       </c>
       <c r="M22">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="N22">
-        <v>79.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="O22">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P22">
-        <v>70343</v>
+        <v>94061</v>
       </c>
       <c r="Q22">
-        <v>413.8</v>
+        <v>553.3</v>
       </c>
       <c r="R22">
-        <v>966.8</v>
+        <v>1919.8</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2174,43 +2933,82 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="V22">
-        <v>623.8</v>
+        <v>361</v>
       </c>
       <c r="W22">
-        <v>8880</v>
+        <v>20111</v>
       </c>
       <c r="X22">
         <v>170</v>
       </c>
       <c r="Y22">
+        <v>771</v>
+      </c>
+      <c r="Z22">
+        <v>122</v>
+      </c>
+      <c r="AA22">
+        <v>71.8</v>
+      </c>
+      <c r="AB22">
+        <v>0.5</v>
+      </c>
+      <c r="AC22">
+        <v>70343</v>
+      </c>
+      <c r="AD22">
+        <v>413.8</v>
+      </c>
+      <c r="AE22">
+        <v>966.8</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>623.8</v>
+      </c>
+      <c r="AJ22">
+        <v>8880</v>
+      </c>
+      <c r="AK22">
+        <v>170</v>
+      </c>
+      <c r="AL22">
         <v>890.4</v>
       </c>
-      <c r="Z22">
+      <c r="AM22">
         <v>79</v>
       </c>
-      <c r="AA22">
+      <c r="AN22">
         <v>46.5</v>
       </c>
-      <c r="AB22">
+      <c r="AO22">
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:41">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>167455</v>
+        <v>42376</v>
       </c>
       <c r="D23">
-        <v>2392.2</v>
+        <v>605.4</v>
       </c>
       <c r="E23">
-        <v>9143.4</v>
+        <v>1182.1</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2219,37 +3017,37 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="I23">
-        <v>1437.5</v>
+        <v>660.8</v>
       </c>
       <c r="J23">
-        <v>74441</v>
+        <v>7613</v>
       </c>
       <c r="K23">
         <v>70</v>
       </c>
       <c r="L23">
-        <v>3488.6</v>
+        <v>1033.6</v>
       </c>
       <c r="M23">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N23">
-        <v>68.59999999999999</v>
+        <v>58.6</v>
       </c>
       <c r="O23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>18757</v>
+        <v>16010</v>
       </c>
       <c r="Q23">
-        <v>268</v>
+        <v>228.7</v>
       </c>
       <c r="R23">
-        <v>486.7</v>
+        <v>449.2</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2258,43 +3056,82 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="V23">
-        <v>352.8</v>
+        <v>266</v>
       </c>
       <c r="W23">
-        <v>1611</v>
+        <v>1866</v>
       </c>
       <c r="X23">
         <v>70</v>
       </c>
       <c r="Y23">
+        <v>363.9</v>
+      </c>
+      <c r="Z23">
+        <v>44</v>
+      </c>
+      <c r="AA23">
+        <v>62.9</v>
+      </c>
+      <c r="AB23">
+        <v>0.2</v>
+      </c>
+      <c r="AC23">
+        <v>18757</v>
+      </c>
+      <c r="AD23">
+        <v>268</v>
+      </c>
+      <c r="AE23">
+        <v>486.7</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>352.8</v>
+      </c>
+      <c r="AJ23">
+        <v>1611</v>
+      </c>
+      <c r="AK23">
+        <v>70</v>
+      </c>
+      <c r="AL23">
         <v>815.5</v>
       </c>
-      <c r="Z23">
+      <c r="AM23">
         <v>23</v>
       </c>
-      <c r="AA23">
+      <c r="AN23">
         <v>32.9</v>
       </c>
-      <c r="AB23">
+      <c r="AO23">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:41">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>265617</v>
+        <v>116261</v>
       </c>
       <c r="D24">
-        <v>1639.6</v>
+        <v>717.7</v>
       </c>
       <c r="E24">
-        <v>4756.3</v>
+        <v>1569.2</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2303,37 +3140,37 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>259.5</v>
+        <v>178</v>
       </c>
       <c r="I24">
-        <v>1234</v>
+        <v>755.2</v>
       </c>
       <c r="J24">
-        <v>47158</v>
+        <v>14101</v>
       </c>
       <c r="K24">
         <v>162</v>
       </c>
       <c r="L24">
-        <v>2270.2</v>
+        <v>1107.2</v>
       </c>
       <c r="M24">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N24">
-        <v>72.2</v>
+        <v>64.8</v>
       </c>
       <c r="O24">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P24">
-        <v>77126</v>
+        <v>57453</v>
       </c>
       <c r="Q24">
-        <v>476.1</v>
+        <v>354.6</v>
       </c>
       <c r="R24">
-        <v>1683</v>
+        <v>1633.9</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2342,43 +3179,82 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="V24">
-        <v>492</v>
+        <v>161.8</v>
       </c>
       <c r="W24">
-        <v>20246</v>
+        <v>19557</v>
       </c>
       <c r="X24">
         <v>162</v>
       </c>
       <c r="Y24">
+        <v>522.3</v>
+      </c>
+      <c r="Z24">
+        <v>110</v>
+      </c>
+      <c r="AA24">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="AB24">
+        <v>0.3</v>
+      </c>
+      <c r="AC24">
+        <v>77126</v>
+      </c>
+      <c r="AD24">
+        <v>476.1</v>
+      </c>
+      <c r="AE24">
+        <v>1683</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>30.5</v>
+      </c>
+      <c r="AI24">
+        <v>492</v>
+      </c>
+      <c r="AJ24">
+        <v>20246</v>
+      </c>
+      <c r="AK24">
+        <v>162</v>
+      </c>
+      <c r="AL24">
         <v>918.2</v>
       </c>
-      <c r="Z24">
+      <c r="AM24">
         <v>84</v>
       </c>
-      <c r="AA24">
+      <c r="AN24">
         <v>51.9</v>
       </c>
-      <c r="AB24">
+      <c r="AO24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:41">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>75868</v>
+        <v>24056</v>
       </c>
       <c r="D25">
-        <v>1431.5</v>
+        <v>453.9</v>
       </c>
       <c r="E25">
-        <v>4321.4</v>
+        <v>938.3</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2387,37 +3263,37 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I25">
-        <v>864</v>
+        <v>570</v>
       </c>
       <c r="J25">
-        <v>24940</v>
+        <v>5535</v>
       </c>
       <c r="K25">
         <v>53</v>
       </c>
       <c r="L25">
-        <v>2231.4</v>
+        <v>801.9</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N25">
-        <v>64.2</v>
+        <v>56.6</v>
       </c>
       <c r="O25">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="P25">
-        <v>23088</v>
+        <v>5594</v>
       </c>
       <c r="Q25">
-        <v>435.6</v>
+        <v>105.5</v>
       </c>
       <c r="R25">
-        <v>1116.3</v>
+        <v>203.1</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2426,43 +3302,82 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V25">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="W25">
-        <v>7664</v>
+        <v>915</v>
       </c>
       <c r="X25">
         <v>53</v>
       </c>
       <c r="Y25">
+        <v>199.8</v>
+      </c>
+      <c r="Z25">
+        <v>28</v>
+      </c>
+      <c r="AA25">
+        <v>52.8</v>
+      </c>
+      <c r="AB25">
+        <v>-0.2</v>
+      </c>
+      <c r="AC25">
+        <v>23088</v>
+      </c>
+      <c r="AD25">
+        <v>435.6</v>
+      </c>
+      <c r="AE25">
+        <v>1116.3</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>566</v>
+      </c>
+      <c r="AJ25">
+        <v>7664</v>
+      </c>
+      <c r="AK25">
+        <v>53</v>
+      </c>
+      <c r="AL25">
         <v>1049.5</v>
       </c>
-      <c r="Z25">
+      <c r="AM25">
         <v>22</v>
       </c>
-      <c r="AA25">
+      <c r="AN25">
         <v>41.5</v>
       </c>
-      <c r="AB25">
+      <c r="AO25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:41">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>272755</v>
+        <v>161873</v>
       </c>
       <c r="D26">
-        <v>824</v>
+        <v>489</v>
       </c>
       <c r="E26">
-        <v>3723.8</v>
+        <v>2716</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2471,37 +3386,37 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="J26">
-        <v>56317</v>
+        <v>47580</v>
       </c>
       <c r="K26">
         <v>331</v>
       </c>
       <c r="L26">
-        <v>1458.6</v>
+        <v>941.1</v>
       </c>
       <c r="M26">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="N26">
-        <v>56.5</v>
+        <v>52</v>
       </c>
       <c r="O26">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="P26">
-        <v>102366</v>
+        <v>40496</v>
       </c>
       <c r="Q26">
-        <v>309.3</v>
+        <v>122.3</v>
       </c>
       <c r="R26">
-        <v>2070.5</v>
+        <v>565.2</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -2510,43 +3425,82 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W26">
-        <v>36858</v>
+        <v>8505</v>
       </c>
       <c r="X26">
         <v>331</v>
       </c>
       <c r="Y26">
+        <v>228.8</v>
+      </c>
+      <c r="Z26">
+        <v>177</v>
+      </c>
+      <c r="AA26">
+        <v>53.5</v>
+      </c>
+      <c r="AB26">
+        <v>-0.2</v>
+      </c>
+      <c r="AC26">
+        <v>102366</v>
+      </c>
+      <c r="AD26">
+        <v>309.3</v>
+      </c>
+      <c r="AE26">
+        <v>2070.5</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>75</v>
+      </c>
+      <c r="AJ26">
+        <v>36858</v>
+      </c>
+      <c r="AK26">
+        <v>331</v>
+      </c>
+      <c r="AL26">
         <v>1190.3</v>
       </c>
-      <c r="Z26">
+      <c r="AM26">
         <v>86</v>
       </c>
-      <c r="AA26">
+      <c r="AN26">
         <v>26</v>
       </c>
-      <c r="AB26">
+      <c r="AO26">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:41">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>573468</v>
+        <v>275945</v>
       </c>
       <c r="D27">
-        <v>1571.1</v>
+        <v>756</v>
       </c>
       <c r="E27">
-        <v>5814.8</v>
+        <v>2590.8</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2555,37 +3509,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="I27">
-        <v>1004</v>
+        <v>707</v>
       </c>
       <c r="J27">
-        <v>72982</v>
+        <v>43003</v>
       </c>
       <c r="K27">
         <v>365</v>
       </c>
       <c r="L27">
-        <v>2284.7</v>
+        <v>1179.3</v>
       </c>
       <c r="M27">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="N27">
-        <v>68.8</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="O27">
         <v>0.2</v>
       </c>
       <c r="P27">
-        <v>79228</v>
+        <v>78864</v>
       </c>
       <c r="Q27">
-        <v>217.1</v>
+        <v>216.1</v>
       </c>
       <c r="R27">
-        <v>451.8</v>
+        <v>597.6</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2594,43 +3548,82 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V27">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="W27">
-        <v>3100</v>
+        <v>6504</v>
       </c>
       <c r="X27">
         <v>365</v>
       </c>
       <c r="Y27">
+        <v>335.6</v>
+      </c>
+      <c r="Z27">
+        <v>235</v>
+      </c>
+      <c r="AA27">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="AB27">
+        <v>0.2</v>
+      </c>
+      <c r="AC27">
+        <v>79228</v>
+      </c>
+      <c r="AD27">
+        <v>217.1</v>
+      </c>
+      <c r="AE27">
+        <v>451.8</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>211</v>
+      </c>
+      <c r="AJ27">
+        <v>3100</v>
+      </c>
+      <c r="AK27">
+        <v>365</v>
+      </c>
+      <c r="AL27">
         <v>733.6</v>
       </c>
-      <c r="Z27">
+      <c r="AM27">
         <v>108</v>
       </c>
-      <c r="AA27">
+      <c r="AN27">
         <v>29.6</v>
       </c>
-      <c r="AB27">
+      <c r="AO27">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:41">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>215304</v>
+        <v>140169</v>
       </c>
       <c r="D28">
-        <v>609.9</v>
+        <v>397.1</v>
       </c>
       <c r="E28">
-        <v>1614.5</v>
+        <v>871.3</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2639,37 +3632,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I28">
-        <v>662</v>
+        <v>484</v>
       </c>
       <c r="J28">
-        <v>19694</v>
+        <v>8769</v>
       </c>
       <c r="K28">
         <v>353</v>
       </c>
       <c r="L28">
-        <v>1006.1</v>
+        <v>704.4</v>
       </c>
       <c r="M28">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="N28">
-        <v>60.6</v>
+        <v>56.4</v>
       </c>
       <c r="O28">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P28">
-        <v>108000</v>
+        <v>40220</v>
       </c>
       <c r="Q28">
-        <v>305.9</v>
+        <v>113.9</v>
       </c>
       <c r="R28">
-        <v>2007</v>
+        <v>459.4</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2678,43 +3671,82 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V28">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="W28">
-        <v>36948</v>
+        <v>7636</v>
       </c>
       <c r="X28">
         <v>353</v>
       </c>
       <c r="Y28">
+        <v>197.2</v>
+      </c>
+      <c r="Z28">
+        <v>204</v>
+      </c>
+      <c r="AA28">
+        <v>57.8</v>
+      </c>
+      <c r="AB28">
+        <v>-0</v>
+      </c>
+      <c r="AC28">
+        <v>108000</v>
+      </c>
+      <c r="AD28">
+        <v>305.9</v>
+      </c>
+      <c r="AE28">
+        <v>2007</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>184</v>
+      </c>
+      <c r="AJ28">
+        <v>36948</v>
+      </c>
+      <c r="AK28">
+        <v>353</v>
+      </c>
+      <c r="AL28">
         <v>1038.5</v>
       </c>
-      <c r="Z28">
+      <c r="AM28">
         <v>104</v>
       </c>
-      <c r="AA28">
+      <c r="AN28">
         <v>29.5</v>
       </c>
-      <c r="AB28">
+      <c r="AO28">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:41">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>100699</v>
+        <v>42573</v>
       </c>
       <c r="D29">
-        <v>774.6</v>
+        <v>327.5</v>
       </c>
       <c r="E29">
-        <v>2441</v>
+        <v>714.4</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2723,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>43</v>
+        <v>16.5</v>
       </c>
       <c r="I29">
-        <v>570.2</v>
+        <v>390.2</v>
       </c>
       <c r="J29">
-        <v>19670</v>
+        <v>4906</v>
       </c>
       <c r="K29">
         <v>130</v>
       </c>
       <c r="L29">
-        <v>1243.2</v>
+        <v>575.3</v>
       </c>
       <c r="M29">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N29">
-        <v>62.3</v>
+        <v>56.9</v>
       </c>
       <c r="O29">
         <v>-0.1</v>
       </c>
       <c r="P29">
-        <v>31156</v>
+        <v>11281</v>
       </c>
       <c r="Q29">
-        <v>239.7</v>
+        <v>86.8</v>
       </c>
       <c r="R29">
-        <v>503.8</v>
+        <v>319.8</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2762,43 +3794,82 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="V29">
-        <v>279.5</v>
+        <v>44.2</v>
       </c>
       <c r="W29">
-        <v>3096</v>
+        <v>3183</v>
       </c>
       <c r="X29">
         <v>130</v>
       </c>
       <c r="Y29">
+        <v>150.4</v>
+      </c>
+      <c r="Z29">
+        <v>75</v>
+      </c>
+      <c r="AA29">
+        <v>57.7</v>
+      </c>
+      <c r="AB29">
+        <v>-0</v>
+      </c>
+      <c r="AC29">
+        <v>31156</v>
+      </c>
+      <c r="AD29">
+        <v>239.7</v>
+      </c>
+      <c r="AE29">
+        <v>503.8</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>279.5</v>
+      </c>
+      <c r="AJ29">
+        <v>3096</v>
+      </c>
+      <c r="AK29">
+        <v>130</v>
+      </c>
+      <c r="AL29">
         <v>610.9</v>
       </c>
-      <c r="Z29">
+      <c r="AM29">
         <v>51</v>
       </c>
-      <c r="AA29">
+      <c r="AN29">
         <v>39.2</v>
       </c>
-      <c r="AB29">
+      <c r="AO29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:41">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>220958</v>
+        <v>73329</v>
       </c>
       <c r="D30">
-        <v>1363.9</v>
+        <v>452.6</v>
       </c>
       <c r="E30">
-        <v>4532</v>
+        <v>853.7</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2807,37 +3878,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I30">
-        <v>812.8</v>
+        <v>495.8</v>
       </c>
       <c r="J30">
-        <v>38597</v>
+        <v>4765</v>
       </c>
       <c r="K30">
         <v>162</v>
       </c>
       <c r="L30">
-        <v>2301.6</v>
+        <v>852.7</v>
       </c>
       <c r="M30">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="N30">
-        <v>59.3</v>
+        <v>53.1</v>
       </c>
       <c r="O30">
         <v>-0.2</v>
       </c>
       <c r="P30">
-        <v>32145</v>
+        <v>32826</v>
       </c>
       <c r="Q30">
-        <v>198.4</v>
+        <v>202.6</v>
       </c>
       <c r="R30">
-        <v>589.7</v>
+        <v>937.3</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -2846,43 +3917,82 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>89.2</v>
+        <v>107.8</v>
       </c>
       <c r="W30">
-        <v>6145</v>
+        <v>11227</v>
       </c>
       <c r="X30">
         <v>162</v>
       </c>
       <c r="Y30">
+        <v>364.7</v>
+      </c>
+      <c r="Z30">
+        <v>90</v>
+      </c>
+      <c r="AA30">
+        <v>55.6</v>
+      </c>
+      <c r="AB30">
+        <v>-0.1</v>
+      </c>
+      <c r="AC30">
+        <v>32145</v>
+      </c>
+      <c r="AD30">
+        <v>198.4</v>
+      </c>
+      <c r="AE30">
+        <v>589.7</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>89.2</v>
+      </c>
+      <c r="AJ30">
+        <v>6145</v>
+      </c>
+      <c r="AK30">
+        <v>162</v>
+      </c>
+      <c r="AL30">
         <v>747.6</v>
       </c>
-      <c r="Z30">
+      <c r="AM30">
         <v>43</v>
       </c>
-      <c r="AA30">
+      <c r="AN30">
         <v>26.5</v>
       </c>
-      <c r="AB30">
+      <c r="AO30">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:41">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>213307</v>
+        <v>94929</v>
       </c>
       <c r="D31">
-        <v>1481.3</v>
+        <v>659.2</v>
       </c>
       <c r="E31">
-        <v>5432.1</v>
+        <v>1271.3</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2891,37 +4001,37 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>248.5</v>
+        <v>188</v>
       </c>
       <c r="I31">
-        <v>1058</v>
+        <v>908.2</v>
       </c>
       <c r="J31">
-        <v>52506</v>
+        <v>10957</v>
       </c>
       <c r="K31">
         <v>144</v>
       </c>
       <c r="L31">
-        <v>2245.3</v>
+        <v>1043.2</v>
       </c>
       <c r="M31">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N31">
-        <v>66</v>
+        <v>63.2</v>
       </c>
       <c r="O31">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P31">
-        <v>61856</v>
+        <v>29914</v>
       </c>
       <c r="Q31">
-        <v>429.6</v>
+        <v>207.7</v>
       </c>
       <c r="R31">
-        <v>1870</v>
+        <v>482.8</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2930,63 +4040,102 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="V31">
-        <v>399.5</v>
+        <v>182.2</v>
       </c>
       <c r="W31">
-        <v>21892</v>
+        <v>3864</v>
       </c>
       <c r="X31">
         <v>144</v>
       </c>
       <c r="Y31">
+        <v>321.7</v>
+      </c>
+      <c r="Z31">
+        <v>93</v>
+      </c>
+      <c r="AA31">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="AB31">
+        <v>0.2</v>
+      </c>
+      <c r="AC31">
+        <v>61856</v>
+      </c>
+      <c r="AD31">
+        <v>429.6</v>
+      </c>
+      <c r="AE31">
+        <v>1870</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>399.5</v>
+      </c>
+      <c r="AJ31">
+        <v>21892</v>
+      </c>
+      <c r="AK31">
+        <v>144</v>
+      </c>
+      <c r="AL31">
         <v>1048.4</v>
       </c>
-      <c r="Z31">
+      <c r="AM31">
         <v>59</v>
       </c>
-      <c r="AA31">
+      <c r="AN31">
         <v>41</v>
       </c>
-      <c r="AB31">
+      <c r="AO31">
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:41">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="D32">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="F32">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="G32">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="H32">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="I32">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="J32">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2995,34 +4144,34 @@
         <v>100</v>
       </c>
       <c r="O32">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P32">
-        <v>808</v>
+        <v>32</v>
       </c>
       <c r="Q32">
-        <v>808</v>
+        <v>32</v>
       </c>
       <c r="S32">
-        <v>808</v>
+        <v>32</v>
       </c>
       <c r="T32">
-        <v>808</v>
+        <v>32</v>
       </c>
       <c r="U32">
-        <v>808</v>
+        <v>32</v>
       </c>
       <c r="V32">
-        <v>808</v>
+        <v>32</v>
       </c>
       <c r="W32">
-        <v>808</v>
+        <v>32</v>
       </c>
       <c r="X32">
         <v>1</v>
       </c>
       <c r="Y32">
-        <v>808</v>
+        <v>32</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -3031,43 +4180,79 @@
         <v>100</v>
       </c>
       <c r="AB32">
+        <v>1.5</v>
+      </c>
+      <c r="AC32">
+        <v>808</v>
+      </c>
+      <c r="AD32">
+        <v>808</v>
+      </c>
+      <c r="AF32">
+        <v>808</v>
+      </c>
+      <c r="AG32">
+        <v>808</v>
+      </c>
+      <c r="AH32">
+        <v>808</v>
+      </c>
+      <c r="AI32">
+        <v>808</v>
+      </c>
+      <c r="AJ32">
+        <v>808</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>808</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>100</v>
+      </c>
+      <c r="AO32">
         <v>2.4</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:41">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>36857</v>
+        <v>30407</v>
       </c>
       <c r="D33">
-        <v>2835.2</v>
+        <v>2339</v>
       </c>
       <c r="E33">
-        <v>1736.6</v>
+        <v>1385.3</v>
       </c>
       <c r="F33">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G33">
-        <v>1937</v>
+        <v>1505</v>
       </c>
       <c r="H33">
-        <v>2783</v>
+        <v>2301</v>
       </c>
       <c r="I33">
-        <v>3446</v>
+        <v>3072</v>
       </c>
       <c r="J33">
-        <v>6138</v>
+        <v>4910</v>
       </c>
       <c r="K33">
         <v>13</v>
       </c>
       <c r="L33">
-        <v>2835.2</v>
+        <v>2339</v>
       </c>
       <c r="M33">
         <v>13</v>
@@ -3076,82 +4261,121 @@
         <v>100</v>
       </c>
       <c r="O33">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P33">
-        <v>4871</v>
+        <v>6429</v>
       </c>
       <c r="Q33">
-        <v>374.7</v>
+        <v>494.5</v>
       </c>
       <c r="R33">
-        <v>545.8</v>
+        <v>462.9</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="U33">
-        <v>59</v>
+        <v>376</v>
       </c>
       <c r="V33">
-        <v>651</v>
+        <v>485</v>
       </c>
       <c r="W33">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="X33">
         <v>13</v>
       </c>
       <c r="Y33">
+        <v>494.5</v>
+      </c>
+      <c r="Z33">
+        <v>13</v>
+      </c>
+      <c r="AA33">
+        <v>100</v>
+      </c>
+      <c r="AB33">
+        <v>1.5</v>
+      </c>
+      <c r="AC33">
+        <v>4871</v>
+      </c>
+      <c r="AD33">
+        <v>374.7</v>
+      </c>
+      <c r="AE33">
+        <v>545.8</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>59</v>
+      </c>
+      <c r="AI33">
+        <v>651</v>
+      </c>
+      <c r="AJ33">
+        <v>1710</v>
+      </c>
+      <c r="AK33">
+        <v>13</v>
+      </c>
+      <c r="AL33">
         <v>695.9</v>
       </c>
-      <c r="Z33">
+      <c r="AM33">
         <v>7</v>
       </c>
-      <c r="AA33">
+      <c r="AN33">
         <v>53.8</v>
       </c>
-      <c r="AB33">
+      <c r="AO33">
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:41">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34">
-        <v>19661</v>
+        <v>14620</v>
       </c>
       <c r="D34">
-        <v>1787.4</v>
+        <v>1329.1</v>
       </c>
       <c r="E34">
-        <v>1762.4</v>
+        <v>1311</v>
       </c>
       <c r="F34">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G34">
-        <v>588.5</v>
+        <v>438.5</v>
       </c>
       <c r="H34">
-        <v>909</v>
+        <v>745</v>
       </c>
       <c r="I34">
-        <v>2291</v>
+        <v>1636</v>
       </c>
       <c r="J34">
-        <v>5326</v>
+        <v>4032</v>
       </c>
       <c r="K34">
         <v>11</v>
       </c>
       <c r="L34">
-        <v>1787.4</v>
+        <v>1329.1</v>
       </c>
       <c r="M34">
         <v>11</v>
@@ -3160,82 +4384,121 @@
         <v>100</v>
       </c>
       <c r="O34">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P34">
-        <v>4260</v>
+        <v>5027</v>
       </c>
       <c r="Q34">
-        <v>387.3</v>
+        <v>457</v>
       </c>
       <c r="R34">
-        <v>472.6</v>
+        <v>461.7</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>123.5</v>
       </c>
       <c r="U34">
-        <v>47</v>
+        <v>245</v>
       </c>
       <c r="V34">
-        <v>717</v>
+        <v>649.5</v>
       </c>
       <c r="W34">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="X34">
         <v>11</v>
       </c>
       <c r="Y34">
+        <v>457</v>
+      </c>
+      <c r="Z34">
+        <v>11</v>
+      </c>
+      <c r="AA34">
+        <v>100</v>
+      </c>
+      <c r="AB34">
+        <v>1.5</v>
+      </c>
+      <c r="AC34">
+        <v>4260</v>
+      </c>
+      <c r="AD34">
+        <v>387.3</v>
+      </c>
+      <c r="AE34">
+        <v>472.6</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>47</v>
+      </c>
+      <c r="AI34">
+        <v>717</v>
+      </c>
+      <c r="AJ34">
+        <v>1302</v>
+      </c>
+      <c r="AK34">
+        <v>11</v>
+      </c>
+      <c r="AL34">
         <v>710</v>
       </c>
-      <c r="Z34">
+      <c r="AM34">
         <v>6</v>
       </c>
-      <c r="AA34">
+      <c r="AN34">
         <v>54.5</v>
       </c>
-      <c r="AB34">
+      <c r="AO34">
         <v>0.6</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:41">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35">
-        <v>6936</v>
+        <v>6138</v>
       </c>
       <c r="D35">
-        <v>2312</v>
+        <v>2046</v>
       </c>
       <c r="E35">
-        <v>2027.1</v>
+        <v>1823.5</v>
       </c>
       <c r="F35">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="G35">
-        <v>1292.5</v>
+        <v>1137</v>
       </c>
       <c r="H35">
-        <v>2288</v>
+        <v>2057</v>
       </c>
       <c r="I35">
-        <v>3319.5</v>
+        <v>2960.5</v>
       </c>
       <c r="J35">
-        <v>4351</v>
+        <v>3864</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35">
-        <v>2312</v>
+        <v>2046</v>
       </c>
       <c r="M35">
         <v>3</v>
@@ -3244,163 +4507,241 @@
         <v>100</v>
       </c>
       <c r="O35">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P35">
-        <v>2142</v>
+        <v>773</v>
       </c>
       <c r="Q35">
-        <v>714</v>
+        <v>257.7</v>
       </c>
       <c r="R35">
-        <v>709.5</v>
+        <v>201.8</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="T35">
-        <v>361.5</v>
+        <v>150</v>
       </c>
       <c r="U35">
-        <v>723</v>
+        <v>227</v>
       </c>
       <c r="V35">
-        <v>1071</v>
+        <v>350</v>
       </c>
       <c r="W35">
-        <v>1419</v>
+        <v>473</v>
       </c>
       <c r="X35">
         <v>3</v>
       </c>
       <c r="Y35">
+        <v>257.7</v>
+      </c>
+      <c r="Z35">
+        <v>3</v>
+      </c>
+      <c r="AA35">
+        <v>100</v>
+      </c>
+      <c r="AB35">
+        <v>1.5</v>
+      </c>
+      <c r="AC35">
+        <v>2142</v>
+      </c>
+      <c r="AD35">
+        <v>714</v>
+      </c>
+      <c r="AE35">
+        <v>709.5</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>361.5</v>
+      </c>
+      <c r="AH35">
+        <v>723</v>
+      </c>
+      <c r="AI35">
         <v>1071</v>
       </c>
-      <c r="Z35">
+      <c r="AJ35">
+        <v>1419</v>
+      </c>
+      <c r="AK35">
+        <v>3</v>
+      </c>
+      <c r="AL35">
+        <v>1071</v>
+      </c>
+      <c r="AM35">
         <v>2</v>
       </c>
-      <c r="AA35">
+      <c r="AN35">
         <v>66.7</v>
       </c>
-      <c r="AB35">
+      <c r="AO35">
         <v>1.1</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:41">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
-        <v>57175</v>
+        <v>18494</v>
       </c>
       <c r="D36">
-        <v>5197.7</v>
+        <v>1681.3</v>
       </c>
       <c r="E36">
-        <v>6754.1</v>
+        <v>2483.1</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>493.5</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>2148</v>
+        <v>815</v>
       </c>
       <c r="I36">
-        <v>7612</v>
+        <v>2286</v>
       </c>
       <c r="J36">
-        <v>20276</v>
+        <v>7874</v>
       </c>
       <c r="K36">
         <v>11</v>
       </c>
       <c r="L36">
-        <v>6352.8</v>
+        <v>2642</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N36">
-        <v>81.8</v>
+        <v>63.6</v>
       </c>
       <c r="O36">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="P36">
-        <v>8256</v>
+        <v>4189</v>
       </c>
       <c r="Q36">
-        <v>750.5</v>
+        <v>380.8</v>
       </c>
       <c r="R36">
-        <v>560.6</v>
+        <v>599.4</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>761</v>
+        <v>46</v>
       </c>
       <c r="V36">
-        <v>1072</v>
+        <v>493</v>
       </c>
       <c r="W36">
-        <v>1748</v>
+        <v>1784</v>
       </c>
       <c r="X36">
         <v>11</v>
       </c>
       <c r="Y36">
+        <v>598.4</v>
+      </c>
+      <c r="Z36">
+        <v>7</v>
+      </c>
+      <c r="AA36">
+        <v>63.6</v>
+      </c>
+      <c r="AB36">
+        <v>0.2</v>
+      </c>
+      <c r="AC36">
+        <v>8256</v>
+      </c>
+      <c r="AD36">
+        <v>750.5</v>
+      </c>
+      <c r="AE36">
+        <v>560.6</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>354</v>
+      </c>
+      <c r="AH36">
+        <v>761</v>
+      </c>
+      <c r="AI36">
+        <v>1072</v>
+      </c>
+      <c r="AJ36">
+        <v>1748</v>
+      </c>
+      <c r="AK36">
+        <v>11</v>
+      </c>
+      <c r="AL36">
         <v>1032</v>
       </c>
-      <c r="Z36">
+      <c r="AM36">
         <v>8</v>
       </c>
-      <c r="AA36">
+      <c r="AN36">
         <v>72.7</v>
       </c>
-      <c r="AB36">
+      <c r="AO36">
         <v>1.3</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:41">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="D37">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="F37">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="G37">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="H37">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="I37">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="J37">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>591</v>
+        <v>517</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -3409,34 +4750,34 @@
         <v>100</v>
       </c>
       <c r="O37">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P37">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="Q37">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="S37">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="T37">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="U37">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="V37">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="W37">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="X37">
         <v>1</v>
       </c>
       <c r="Y37">
-        <v>794</v>
+        <v>75</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -3445,61 +4786,97 @@
         <v>100</v>
       </c>
       <c r="AB37">
+        <v>1.5</v>
+      </c>
+      <c r="AC37">
+        <v>794</v>
+      </c>
+      <c r="AD37">
+        <v>794</v>
+      </c>
+      <c r="AF37">
+        <v>794</v>
+      </c>
+      <c r="AG37">
+        <v>794</v>
+      </c>
+      <c r="AH37">
+        <v>794</v>
+      </c>
+      <c r="AI37">
+        <v>794</v>
+      </c>
+      <c r="AJ37">
+        <v>794</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>794</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>100</v>
+      </c>
+      <c r="AO37">
         <v>2.4</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:41">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>98249</v>
+        <v>40940</v>
       </c>
       <c r="D38">
-        <v>4465.9</v>
+        <v>1860.9</v>
       </c>
       <c r="E38">
-        <v>5975.6</v>
+        <v>2537.7</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>2615.5</v>
+        <v>978</v>
       </c>
       <c r="I38">
-        <v>4023</v>
+        <v>2382</v>
       </c>
       <c r="J38">
-        <v>18528</v>
+        <v>8682</v>
       </c>
       <c r="K38">
         <v>22</v>
       </c>
       <c r="L38">
-        <v>5779.4</v>
+        <v>2924.3</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N38">
-        <v>77.3</v>
+        <v>63.6</v>
       </c>
       <c r="O38">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P38">
-        <v>16518</v>
+        <v>23376</v>
       </c>
       <c r="Q38">
-        <v>750.8</v>
+        <v>1062.5</v>
       </c>
       <c r="R38">
-        <v>1327.9</v>
+        <v>2805.7</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3508,82 +4885,121 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="V38">
-        <v>1291.5</v>
+        <v>457.5</v>
       </c>
       <c r="W38">
-        <v>5316</v>
+        <v>9692</v>
       </c>
       <c r="X38">
         <v>22</v>
       </c>
       <c r="Y38">
+        <v>1669.7</v>
+      </c>
+      <c r="Z38">
+        <v>14</v>
+      </c>
+      <c r="AA38">
+        <v>63.6</v>
+      </c>
+      <c r="AB38">
+        <v>0.2</v>
+      </c>
+      <c r="AC38">
+        <v>16518</v>
+      </c>
+      <c r="AD38">
+        <v>750.8</v>
+      </c>
+      <c r="AE38">
+        <v>1327.9</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1291.5</v>
+      </c>
+      <c r="AJ38">
+        <v>5316</v>
+      </c>
+      <c r="AK38">
+        <v>22</v>
+      </c>
+      <c r="AL38">
         <v>1651.8</v>
       </c>
-      <c r="Z38">
+      <c r="AM38">
         <v>10</v>
       </c>
-      <c r="AA38">
+      <c r="AN38">
         <v>45.5</v>
       </c>
-      <c r="AB38">
+      <c r="AO38">
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:41">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>95305</v>
+        <v>28324</v>
       </c>
       <c r="D39">
-        <v>7942.1</v>
+        <v>2360.3</v>
       </c>
       <c r="E39">
-        <v>17158</v>
+        <v>3824.9</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1316</v>
+        <v>733.5</v>
       </c>
       <c r="I39">
-        <v>5897.2</v>
+        <v>3342.8</v>
       </c>
       <c r="J39">
-        <v>60386</v>
+        <v>13060</v>
       </c>
       <c r="K39">
         <v>12</v>
       </c>
       <c r="L39">
-        <v>10589.4</v>
+        <v>3540.5</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N39">
-        <v>75</v>
+        <v>66.7</v>
       </c>
       <c r="O39">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P39">
-        <v>3627</v>
+        <v>50397</v>
       </c>
       <c r="Q39">
-        <v>302.2</v>
+        <v>4199.8</v>
       </c>
       <c r="R39">
-        <v>455.8</v>
+        <v>13483.5</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -3592,64 +5008,103 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>197.5</v>
       </c>
       <c r="V39">
-        <v>666.2</v>
+        <v>490</v>
       </c>
       <c r="W39">
-        <v>1091</v>
+        <v>46992</v>
       </c>
       <c r="X39">
         <v>12</v>
       </c>
       <c r="Y39">
+        <v>6299.6</v>
+      </c>
+      <c r="Z39">
+        <v>8</v>
+      </c>
+      <c r="AA39">
+        <v>66.7</v>
+      </c>
+      <c r="AB39">
+        <v>0.3</v>
+      </c>
+      <c r="AC39">
+        <v>3627</v>
+      </c>
+      <c r="AD39">
+        <v>302.2</v>
+      </c>
+      <c r="AE39">
+        <v>455.8</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>666.2</v>
+      </c>
+      <c r="AJ39">
+        <v>1091</v>
+      </c>
+      <c r="AK39">
+        <v>12</v>
+      </c>
+      <c r="AL39">
         <v>725.4</v>
       </c>
-      <c r="Z39">
+      <c r="AM39">
         <v>5</v>
       </c>
-      <c r="AA39">
+      <c r="AN39">
         <v>41.7</v>
       </c>
-      <c r="AB39">
+      <c r="AO39">
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:41">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>1595</v>
+        <v>1423</v>
       </c>
       <c r="D40">
-        <v>531.7</v>
+        <v>474.3</v>
       </c>
       <c r="E40">
-        <v>72.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F40">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="G40">
-        <v>496.5</v>
+        <v>435.5</v>
       </c>
       <c r="H40">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="I40">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="J40">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40">
-        <v>531.7</v>
+        <v>474.3</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -3658,100 +5113,139 @@
         <v>100</v>
       </c>
       <c r="O40">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P40">
-        <v>923</v>
+        <v>170</v>
       </c>
       <c r="Q40">
-        <v>307.7</v>
+        <v>56.7</v>
       </c>
       <c r="R40">
-        <v>532.9</v>
+        <v>12.4</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V40">
-        <v>461.5</v>
+        <v>60.5</v>
       </c>
       <c r="W40">
-        <v>923</v>
+        <v>71</v>
       </c>
       <c r="X40">
         <v>3</v>
       </c>
       <c r="Y40">
+        <v>56.7</v>
+      </c>
+      <c r="Z40">
+        <v>3</v>
+      </c>
+      <c r="AA40">
+        <v>100</v>
+      </c>
+      <c r="AB40">
+        <v>1.5</v>
+      </c>
+      <c r="AC40">
         <v>923</v>
       </c>
-      <c r="Z40">
+      <c r="AD40">
+        <v>307.7</v>
+      </c>
+      <c r="AE40">
+        <v>532.9</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>461.5</v>
+      </c>
+      <c r="AJ40">
+        <v>923</v>
+      </c>
+      <c r="AK40">
+        <v>3</v>
+      </c>
+      <c r="AL40">
+        <v>923</v>
+      </c>
+      <c r="AM40">
         <v>1</v>
       </c>
-      <c r="AA40">
+      <c r="AN40">
         <v>33.3</v>
       </c>
-      <c r="AB40">
+      <c r="AO40">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:41">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41">
-        <v>12522</v>
+        <v>4792</v>
       </c>
       <c r="D41">
-        <v>2504.4</v>
+        <v>958.4</v>
       </c>
       <c r="E41">
-        <v>2754.5</v>
+        <v>1362.2</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1594</v>
+        <v>218</v>
       </c>
       <c r="I41">
-        <v>4389</v>
+        <v>1419</v>
       </c>
       <c r="J41">
-        <v>6313</v>
+        <v>3155</v>
       </c>
       <c r="K41">
         <v>5</v>
       </c>
       <c r="L41">
-        <v>3130.5</v>
+        <v>1597.3</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="O41">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="P41">
-        <v>3056</v>
+        <v>1418</v>
       </c>
       <c r="Q41">
-        <v>611.2</v>
+        <v>283.6</v>
       </c>
       <c r="R41">
-        <v>621.9</v>
+        <v>537.6</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -3760,19 +5254,19 @@
         <v>0</v>
       </c>
       <c r="U41">
-        <v>669</v>
+        <v>7</v>
       </c>
       <c r="V41">
-        <v>950</v>
+        <v>175</v>
       </c>
       <c r="W41">
-        <v>1437</v>
+        <v>1236</v>
       </c>
       <c r="X41">
         <v>5</v>
       </c>
       <c r="Y41">
-        <v>1018.7</v>
+        <v>472.7</v>
       </c>
       <c r="Z41">
         <v>3</v>
@@ -3781,43 +5275,82 @@
         <v>60</v>
       </c>
       <c r="AB41">
+        <v>0.1</v>
+      </c>
+      <c r="AC41">
+        <v>3056</v>
+      </c>
+      <c r="AD41">
+        <v>611.2</v>
+      </c>
+      <c r="AE41">
+        <v>621.9</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>669</v>
+      </c>
+      <c r="AI41">
+        <v>950</v>
+      </c>
+      <c r="AJ41">
+        <v>1437</v>
+      </c>
+      <c r="AK41">
+        <v>5</v>
+      </c>
+      <c r="AL41">
+        <v>1018.7</v>
+      </c>
+      <c r="AM41">
+        <v>3</v>
+      </c>
+      <c r="AN41">
+        <v>60</v>
+      </c>
+      <c r="AO41">
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:41">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>7564</v>
+        <v>6592</v>
       </c>
       <c r="D42">
-        <v>1512.8</v>
+        <v>1318.4</v>
       </c>
       <c r="E42">
-        <v>923.5</v>
+        <v>805.2</v>
       </c>
       <c r="F42">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G42">
-        <v>1235</v>
+        <v>1014</v>
       </c>
       <c r="H42">
-        <v>1455</v>
+        <v>1327</v>
       </c>
       <c r="I42">
-        <v>2227</v>
+        <v>1904</v>
       </c>
       <c r="J42">
-        <v>2496</v>
+        <v>2202</v>
       </c>
       <c r="K42">
         <v>5</v>
       </c>
       <c r="L42">
-        <v>1512.8</v>
+        <v>1318.4</v>
       </c>
       <c r="M42">
         <v>5</v>
@@ -3826,37 +5359,37 @@
         <v>100</v>
       </c>
       <c r="O42">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P42">
-        <v>5610</v>
+        <v>967</v>
       </c>
       <c r="Q42">
-        <v>1122</v>
+        <v>193.4</v>
       </c>
       <c r="R42">
-        <v>343.5</v>
+        <v>129.3</v>
       </c>
       <c r="S42">
-        <v>860</v>
+        <v>6</v>
       </c>
       <c r="T42">
-        <v>860</v>
+        <v>128</v>
       </c>
       <c r="U42">
-        <v>895</v>
+        <v>217</v>
       </c>
       <c r="V42">
-        <v>1473</v>
+        <v>290</v>
       </c>
       <c r="W42">
-        <v>1522</v>
+        <v>326</v>
       </c>
       <c r="X42">
         <v>5</v>
       </c>
       <c r="Y42">
-        <v>1122</v>
+        <v>193.4</v>
       </c>
       <c r="Z42">
         <v>5</v>
@@ -3865,22 +5398,61 @@
         <v>100</v>
       </c>
       <c r="AB42">
+        <v>1.5</v>
+      </c>
+      <c r="AC42">
+        <v>5610</v>
+      </c>
+      <c r="AD42">
+        <v>1122</v>
+      </c>
+      <c r="AE42">
+        <v>343.5</v>
+      </c>
+      <c r="AF42">
+        <v>860</v>
+      </c>
+      <c r="AG42">
+        <v>860</v>
+      </c>
+      <c r="AH42">
+        <v>895</v>
+      </c>
+      <c r="AI42">
+        <v>1473</v>
+      </c>
+      <c r="AJ42">
+        <v>1522</v>
+      </c>
+      <c r="AK42">
+        <v>5</v>
+      </c>
+      <c r="AL42">
+        <v>1122</v>
+      </c>
+      <c r="AM42">
+        <v>5</v>
+      </c>
+      <c r="AN42">
+        <v>100</v>
+      </c>
+      <c r="AO42">
         <v>2.4</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:41">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
-        <v>21669</v>
+        <v>7420</v>
       </c>
       <c r="D43">
-        <v>4333.8</v>
+        <v>1484</v>
       </c>
       <c r="E43">
-        <v>4975.6</v>
+        <v>2038.3</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3889,37 +5461,37 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4322</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>5224</v>
+        <v>3484</v>
       </c>
       <c r="J43">
-        <v>12123</v>
+        <v>3936</v>
       </c>
       <c r="K43">
         <v>5</v>
       </c>
       <c r="L43">
-        <v>7223</v>
+        <v>3710</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N43">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O43">
-        <v>-0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="P43">
-        <v>722</v>
+        <v>2103</v>
       </c>
       <c r="Q43">
-        <v>144.4</v>
+        <v>420.6</v>
       </c>
       <c r="R43">
-        <v>198.3</v>
+        <v>596.7</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3931,16 +5503,16 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>340</v>
+        <v>831</v>
       </c>
       <c r="W43">
-        <v>382</v>
+        <v>1272</v>
       </c>
       <c r="X43">
         <v>5</v>
       </c>
       <c r="Y43">
-        <v>361</v>
+        <v>1051.5</v>
       </c>
       <c r="Z43">
         <v>2</v>
@@ -3949,42 +5521,81 @@
         <v>40</v>
       </c>
       <c r="AB43">
+        <v>-0.6</v>
+      </c>
+      <c r="AC43">
+        <v>722</v>
+      </c>
+      <c r="AD43">
+        <v>144.4</v>
+      </c>
+      <c r="AE43">
+        <v>198.3</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>340</v>
+      </c>
+      <c r="AJ43">
+        <v>382</v>
+      </c>
+      <c r="AK43">
+        <v>5</v>
+      </c>
+      <c r="AL43">
+        <v>361</v>
+      </c>
+      <c r="AM43">
+        <v>2</v>
+      </c>
+      <c r="AN43">
+        <v>40</v>
+      </c>
+      <c r="AO43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:41">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C44">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="D44">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="F44">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="G44">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="H44">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="I44">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="J44">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -3993,55 +5604,91 @@
         <v>100</v>
       </c>
       <c r="O44">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="X44">
         <v>1</v>
       </c>
+      <c r="Y44">
+        <v>33</v>
+      </c>
       <c r="Z44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB44">
+        <v>1.5</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:41">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>10696</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>3565.3</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>6175.3</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4053,25 +5700,22 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>5348</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>10696</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>3</v>
       </c>
-      <c r="L45">
-        <v>10696</v>
-      </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>-1.2</v>
+        <v>-2.1</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -4107,22 +5751,58 @@
         <v>0</v>
       </c>
       <c r="AB45">
+        <v>-2.1</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>3</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:41">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>4218</v>
+        <v>3551</v>
       </c>
       <c r="D46">
-        <v>421.8</v>
+        <v>355.1</v>
       </c>
       <c r="E46">
-        <v>1267.3</v>
+        <v>1061.1</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4134,16 +5814,16 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="J46">
-        <v>4025</v>
+        <v>3371</v>
       </c>
       <c r="K46">
         <v>10</v>
       </c>
       <c r="L46">
-        <v>1054.5</v>
+        <v>887.8</v>
       </c>
       <c r="M46">
         <v>4</v>
@@ -4152,16 +5832,16 @@
         <v>40</v>
       </c>
       <c r="O46">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="P46">
-        <v>1735</v>
+        <v>661</v>
       </c>
       <c r="Q46">
-        <v>173.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="R46">
-        <v>548.7</v>
+        <v>204.5</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -4173,31 +5853,70 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W46">
-        <v>1735</v>
+        <v>648</v>
       </c>
       <c r="X46">
         <v>10</v>
       </c>
       <c r="Y46">
+        <v>165.2</v>
+      </c>
+      <c r="Z46">
+        <v>4</v>
+      </c>
+      <c r="AA46">
+        <v>40</v>
+      </c>
+      <c r="AB46">
+        <v>-0.6</v>
+      </c>
+      <c r="AC46">
         <v>1735</v>
       </c>
-      <c r="Z46">
+      <c r="AD46">
+        <v>173.5</v>
+      </c>
+      <c r="AE46">
+        <v>548.7</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>1735</v>
+      </c>
+      <c r="AK46">
+        <v>10</v>
+      </c>
+      <c r="AL46">
+        <v>1735</v>
+      </c>
+      <c r="AM46">
         <v>1</v>
       </c>
-      <c r="AA46">
+      <c r="AN46">
         <v>10</v>
       </c>
-      <c r="AB46">
+      <c r="AO46">
         <v>-1.1</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:41">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -4230,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>-2.4</v>
+        <v>-2.1</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -4263,22 +5982,55 @@
         <v>0</v>
       </c>
       <c r="AB47">
+        <v>-2.1</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:41">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C48">
-        <v>26102</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>8700.700000000001</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>15070</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4290,97 +6042,130 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>13051</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>26102</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>3</v>
       </c>
-      <c r="L48">
-        <v>26102</v>
-      </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>-1.2</v>
+        <v>-2.1</v>
       </c>
       <c r="P48">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>161.3</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>139.8</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
       <c r="T48">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="U48">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="V48">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="X48">
         <v>3</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>-2.1</v>
+      </c>
+      <c r="AC48">
+        <v>484</v>
+      </c>
+      <c r="AD48">
+        <v>161.3</v>
+      </c>
+      <c r="AE48">
+        <v>139.8</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>119</v>
+      </c>
+      <c r="AH48">
+        <v>238</v>
+      </c>
+      <c r="AI48">
         <v>242</v>
       </c>
-      <c r="Z48">
+      <c r="AJ48">
+        <v>246</v>
+      </c>
+      <c r="AK48">
+        <v>3</v>
+      </c>
+      <c r="AL48">
+        <v>242</v>
+      </c>
+      <c r="AM48">
         <v>2</v>
       </c>
-      <c r="AA48">
+      <c r="AN48">
         <v>66.7</v>
       </c>
-      <c r="AB48">
+      <c r="AO48">
         <v>1.1</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:41">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="D49">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="F49">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="G49">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="H49">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="I49">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="J49">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>1099</v>
+        <v>638</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -4389,55 +6174,91 @@
         <v>100</v>
       </c>
       <c r="O49">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
+      <c r="Y49">
+        <v>456</v>
+      </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB49">
+        <v>1.5</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:41">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50">
-        <v>5215</v>
+        <v>5033</v>
       </c>
       <c r="D50">
-        <v>869.2</v>
+        <v>838.8</v>
       </c>
       <c r="E50">
-        <v>2083.3</v>
+        <v>2012.4</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4449,16 +6270,16 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>70.5</v>
+        <v>65.2</v>
       </c>
       <c r="J50">
-        <v>5121</v>
+        <v>4946</v>
       </c>
       <c r="K50">
         <v>6</v>
       </c>
       <c r="L50">
-        <v>2607.5</v>
+        <v>2516.5</v>
       </c>
       <c r="M50">
         <v>2</v>
@@ -4467,16 +6288,16 @@
         <v>33.3</v>
       </c>
       <c r="O50">
-        <v>-1.2</v>
+        <v>-0.9</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4488,37 +6309,76 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="X50">
         <v>6</v>
       </c>
+      <c r="Y50">
+        <v>84</v>
+      </c>
       <c r="Z50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AB50">
+        <v>-0.9</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>6</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:41">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D51">
-        <v>82.8</v>
+        <v>79.2</v>
       </c>
       <c r="E51">
-        <v>185.1</v>
+        <v>177.1</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4533,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="K51">
         <v>5</v>
       </c>
       <c r="L51">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -4548,16 +6408,16 @@
         <v>20</v>
       </c>
       <c r="O51">
-        <v>-1.7</v>
+        <v>-1.4</v>
       </c>
       <c r="P51">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="Q51">
-        <v>30.2</v>
+        <v>3.6</v>
       </c>
       <c r="R51">
-        <v>67.5</v>
+        <v>8</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4572,13 +6432,13 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="X51">
         <v>5</v>
       </c>
       <c r="Y51">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="Z51">
         <v>1</v>
@@ -4587,22 +6447,61 @@
         <v>20</v>
       </c>
       <c r="AB51">
+        <v>-1.4</v>
+      </c>
+      <c r="AC51">
+        <v>151</v>
+      </c>
+      <c r="AD51">
+        <v>30.2</v>
+      </c>
+      <c r="AE51">
+        <v>67.5</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>151</v>
+      </c>
+      <c r="AK51">
+        <v>5</v>
+      </c>
+      <c r="AL51">
+        <v>151</v>
+      </c>
+      <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>20</v>
+      </c>
+      <c r="AO51">
         <v>-0.7</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:41">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52">
-        <v>6497</v>
+        <v>5519</v>
       </c>
       <c r="D52">
-        <v>928.1</v>
+        <v>788.4</v>
       </c>
       <c r="E52">
-        <v>1747.3</v>
+        <v>1573.6</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4611,19 +6510,19 @@
         <v>3</v>
       </c>
       <c r="H52">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="I52">
-        <v>778</v>
+        <v>594</v>
       </c>
       <c r="J52">
-        <v>4736</v>
+        <v>4250</v>
       </c>
       <c r="K52">
         <v>7</v>
       </c>
       <c r="L52">
-        <v>1299.4</v>
+        <v>1103.8</v>
       </c>
       <c r="M52">
         <v>5</v>
@@ -4632,16 +6531,16 @@
         <v>71.40000000000001</v>
       </c>
       <c r="O52">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P52">
-        <v>1942</v>
+        <v>968</v>
       </c>
       <c r="Q52">
-        <v>277.4</v>
+        <v>138.3</v>
       </c>
       <c r="R52">
-        <v>543.4</v>
+        <v>184.4</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -4650,43 +6549,82 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="V52">
-        <v>228.5</v>
+        <v>210.5</v>
       </c>
       <c r="W52">
-        <v>1485</v>
+        <v>478</v>
       </c>
       <c r="X52">
         <v>7</v>
       </c>
       <c r="Y52">
+        <v>242</v>
+      </c>
+      <c r="Z52">
+        <v>4</v>
+      </c>
+      <c r="AA52">
+        <v>57.1</v>
+      </c>
+      <c r="AB52">
+        <v>-0</v>
+      </c>
+      <c r="AC52">
+        <v>1942</v>
+      </c>
+      <c r="AD52">
+        <v>277.4</v>
+      </c>
+      <c r="AE52">
+        <v>543.4</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>228.5</v>
+      </c>
+      <c r="AJ52">
+        <v>1485</v>
+      </c>
+      <c r="AK52">
+        <v>7</v>
+      </c>
+      <c r="AL52">
         <v>647.3</v>
       </c>
-      <c r="Z52">
+      <c r="AM52">
         <v>3</v>
       </c>
-      <c r="AA52">
+      <c r="AN52">
         <v>42.9</v>
       </c>
-      <c r="AB52">
+      <c r="AO52">
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:41">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C53">
-        <v>2353</v>
+        <v>2299</v>
       </c>
       <c r="D53">
-        <v>392.2</v>
+        <v>383.2</v>
       </c>
       <c r="E53">
-        <v>705</v>
+        <v>699.8</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4695,19 +6633,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>26</v>
+        <v>23.5</v>
       </c>
       <c r="I53">
-        <v>414.2</v>
+        <v>384.5</v>
       </c>
       <c r="J53">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="K53">
         <v>6</v>
       </c>
       <c r="L53">
-        <v>784.3</v>
+        <v>766.3</v>
       </c>
       <c r="M53">
         <v>3</v>
@@ -4716,16 +6654,16 @@
         <v>50</v>
       </c>
       <c r="O53">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -4734,40 +6672,79 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="X53">
         <v>6</v>
       </c>
+      <c r="Y53">
+        <v>17.7</v>
+      </c>
       <c r="Z53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB53">
+        <v>-0.3</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>6</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:41">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C54">
-        <v>1436</v>
+        <v>1047</v>
       </c>
       <c r="D54">
-        <v>159.6</v>
+        <v>116.3</v>
       </c>
       <c r="E54">
-        <v>325</v>
+        <v>228.5</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -4779,16 +6756,16 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J54">
-        <v>961</v>
+        <v>670</v>
       </c>
       <c r="K54">
         <v>9</v>
       </c>
       <c r="L54">
-        <v>359</v>
+        <v>261.8</v>
       </c>
       <c r="M54">
         <v>4</v>
@@ -4797,16 +6774,16 @@
         <v>44.4</v>
       </c>
       <c r="O54">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="P54">
-        <v>2286</v>
+        <v>382</v>
       </c>
       <c r="Q54">
-        <v>254</v>
+        <v>42.4</v>
       </c>
       <c r="R54">
-        <v>333.6</v>
+        <v>94.8</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -4815,34 +6792,73 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="W54">
-        <v>965</v>
+        <v>283</v>
       </c>
       <c r="X54">
         <v>9</v>
       </c>
       <c r="Y54">
+        <v>127.3</v>
+      </c>
+      <c r="Z54">
+        <v>3</v>
+      </c>
+      <c r="AA54">
+        <v>33.3</v>
+      </c>
+      <c r="AB54">
+        <v>-0.9</v>
+      </c>
+      <c r="AC54">
+        <v>2286</v>
+      </c>
+      <c r="AD54">
+        <v>254</v>
+      </c>
+      <c r="AE54">
+        <v>333.6</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>155</v>
+      </c>
+      <c r="AI54">
+        <v>318</v>
+      </c>
+      <c r="AJ54">
+        <v>965</v>
+      </c>
+      <c r="AK54">
+        <v>9</v>
+      </c>
+      <c r="AL54">
         <v>457.2</v>
       </c>
-      <c r="Z54">
+      <c r="AM54">
         <v>5</v>
       </c>
-      <c r="AA54">
+      <c r="AN54">
         <v>55.6</v>
       </c>
-      <c r="AB54">
+      <c r="AO54">
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:41">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4875,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>-2.4</v>
+        <v>-2.1</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -4908,43 +6924,76 @@
         <v>0</v>
       </c>
       <c r="AB55">
+        <v>-2.1</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:41">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
-        <v>1730</v>
+        <v>1615</v>
       </c>
       <c r="D56">
-        <v>865</v>
+        <v>807.5</v>
       </c>
       <c r="E56">
-        <v>1223.3</v>
+        <v>1142</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>432.5</v>
+        <v>403.8</v>
       </c>
       <c r="H56">
-        <v>865</v>
+        <v>807.5</v>
       </c>
       <c r="I56">
-        <v>1297.5</v>
+        <v>1211.2</v>
       </c>
       <c r="J56">
-        <v>1730</v>
+        <v>1615</v>
       </c>
       <c r="K56">
         <v>2</v>
       </c>
       <c r="L56">
-        <v>1730</v>
+        <v>1615</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -4953,37 +7002,37 @@
         <v>50</v>
       </c>
       <c r="O56">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="P56">
-        <v>628</v>
+        <v>114</v>
       </c>
       <c r="Q56">
-        <v>314</v>
+        <v>57</v>
       </c>
       <c r="R56">
-        <v>444.1</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56">
-        <v>157</v>
+        <v>28.5</v>
       </c>
       <c r="U56">
-        <v>314</v>
+        <v>57</v>
       </c>
       <c r="V56">
-        <v>471</v>
+        <v>85.5</v>
       </c>
       <c r="W56">
-        <v>628</v>
+        <v>114</v>
       </c>
       <c r="X56">
         <v>2</v>
       </c>
       <c r="Y56">
-        <v>628</v>
+        <v>114</v>
       </c>
       <c r="Z56">
         <v>1</v>
@@ -4992,13 +7041,53 @@
         <v>50</v>
       </c>
       <c r="AB56">
+        <v>-0.3</v>
+      </c>
+      <c r="AC56">
+        <v>628</v>
+      </c>
+      <c r="AD56">
+        <v>314</v>
+      </c>
+      <c r="AE56">
+        <v>444.1</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>157</v>
+      </c>
+      <c r="AH56">
+        <v>314</v>
+      </c>
+      <c r="AI56">
+        <v>471</v>
+      </c>
+      <c r="AJ56">
+        <v>628</v>
+      </c>
+      <c r="AK56">
+        <v>2</v>
+      </c>
+      <c r="AL56">
+        <v>628</v>
+      </c>
+      <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>50</v>
+      </c>
+      <c r="AO56">
         <v>0.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C1:O1"/>
     <mergeCell ref="P1:AB1"/>
+    <mergeCell ref="AC1:AO1"/>
     <mergeCell ref="A4:A17"/>
     <mergeCell ref="A18:A31"/>
     <mergeCell ref="A32:A43"/>

--- a/data/analysis/social_media_analytics/pivot_tables/governance_simpl-region/museum_activity_groups__var2-governance_simpl-region.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/governance_simpl-region/museum_activity_groups__var2-governance_simpl-region.xlsx
@@ -669,13 +669,13 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="E4">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>7</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -708,13 +708,13 @@
         <v>-1.6</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="R4">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -729,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <v>7</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>-1.5</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -789,121 +789,121 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>44345</v>
+        <v>51114</v>
       </c>
       <c r="D5">
-        <v>869.5</v>
+        <v>1002.2</v>
       </c>
       <c r="E5">
-        <v>1391.1</v>
+        <v>1562.1</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="I5">
-        <v>1032.5</v>
+        <v>1231</v>
       </c>
       <c r="J5">
-        <v>6379</v>
+        <v>6927</v>
       </c>
       <c r="K5">
         <v>51</v>
       </c>
       <c r="L5">
-        <v>1137.1</v>
+        <v>1345.1</v>
       </c>
       <c r="M5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5">
-        <v>76.5</v>
+        <v>74.5</v>
       </c>
       <c r="O5">
         <v>0.6</v>
       </c>
       <c r="P5">
-        <v>6498</v>
+        <v>7363</v>
       </c>
       <c r="Q5">
-        <v>127.4</v>
+        <v>144.4</v>
       </c>
       <c r="R5">
-        <v>194.1</v>
+        <v>220.5</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="U5">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="V5">
-        <v>120</v>
+        <v>124.5</v>
       </c>
       <c r="W5">
-        <v>768</v>
+        <v>909</v>
       </c>
       <c r="X5">
         <v>51</v>
       </c>
       <c r="Y5">
-        <v>166.6</v>
+        <v>193.8</v>
       </c>
       <c r="Z5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA5">
-        <v>76.5</v>
+        <v>74.5</v>
       </c>
       <c r="AB5">
         <v>0.6</v>
       </c>
       <c r="AC5">
-        <v>28973</v>
+        <v>47602</v>
       </c>
       <c r="AD5">
-        <v>568.1</v>
+        <v>933.4</v>
       </c>
       <c r="AE5">
-        <v>790.8</v>
+        <v>1119.5</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AH5">
-        <v>273</v>
+        <v>613</v>
       </c>
       <c r="AI5">
-        <v>848.5</v>
+        <v>1337</v>
       </c>
       <c r="AJ5">
-        <v>3252</v>
+        <v>5487</v>
       </c>
       <c r="AK5">
         <v>51</v>
       </c>
       <c r="AL5">
-        <v>965.8</v>
+        <v>1190</v>
       </c>
       <c r="AM5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AN5">
-        <v>58.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="AO5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -912,13 +912,13 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>59161</v>
+        <v>70964</v>
       </c>
       <c r="D6">
-        <v>1095.6</v>
+        <v>1314.1</v>
       </c>
       <c r="E6">
-        <v>1350.1</v>
+        <v>1588</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -927,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>577.5</v>
+        <v>702.5</v>
       </c>
       <c r="I6">
-        <v>1816</v>
+        <v>2147</v>
       </c>
       <c r="J6">
-        <v>5468</v>
+        <v>6365</v>
       </c>
       <c r="K6">
         <v>54</v>
       </c>
       <c r="L6">
-        <v>1516.9</v>
+        <v>1819.6</v>
       </c>
       <c r="M6">
         <v>39</v>
@@ -951,13 +951,13 @@
         <v>0.5</v>
       </c>
       <c r="P6">
-        <v>17693</v>
+        <v>20382</v>
       </c>
       <c r="Q6">
-        <v>327.6</v>
+        <v>377.4</v>
       </c>
       <c r="R6">
-        <v>634.8</v>
+        <v>702.3</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -966,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>72.5</v>
+        <v>93</v>
       </c>
       <c r="V6">
-        <v>341</v>
+        <v>385.2</v>
       </c>
       <c r="W6">
-        <v>3432</v>
+        <v>3629</v>
       </c>
       <c r="X6">
         <v>54</v>
       </c>
       <c r="Y6">
-        <v>453.7</v>
+        <v>522.6</v>
       </c>
       <c r="Z6">
         <v>39</v>
@@ -990,43 +990,43 @@
         <v>0.5</v>
       </c>
       <c r="AC6">
-        <v>22047</v>
+        <v>36348</v>
       </c>
       <c r="AD6">
-        <v>408.3</v>
+        <v>673.1</v>
       </c>
       <c r="AE6">
-        <v>670.7</v>
+        <v>674.2</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>559.5</v>
       </c>
       <c r="AI6">
-        <v>736.5</v>
+        <v>1024.5</v>
       </c>
       <c r="AJ6">
-        <v>3292</v>
+        <v>2632</v>
       </c>
       <c r="AK6">
         <v>54</v>
       </c>
       <c r="AL6">
-        <v>958.6</v>
+        <v>865.4</v>
       </c>
       <c r="AM6">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AN6">
-        <v>42.6</v>
+        <v>77.8</v>
       </c>
       <c r="AO6">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1035,13 +1035,13 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="D7">
-        <v>544.3</v>
+        <v>580.3</v>
       </c>
       <c r="E7">
-        <v>942.8</v>
+        <v>1005.2</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>816.5</v>
+        <v>870.5</v>
       </c>
       <c r="J7">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
       <c r="L7">
-        <v>1633</v>
+        <v>1741</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1074,13 +1074,13 @@
         <v>-0.9</v>
       </c>
       <c r="P7">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Q7">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="R7">
-        <v>237.3</v>
+        <v>256.3</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1092,16 +1092,16 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>205.5</v>
+        <v>222</v>
       </c>
       <c r="W7">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="X7">
         <v>3</v>
       </c>
       <c r="Y7">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1113,13 +1113,13 @@
         <v>-0.9</v>
       </c>
       <c r="AC7">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AD7">
-        <v>225</v>
+        <v>274.7</v>
       </c>
       <c r="AE7">
-        <v>389.7</v>
+        <v>475.7</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1131,16 +1131,16 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>337.5</v>
+        <v>412</v>
       </c>
       <c r="AJ7">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AK7">
         <v>3</v>
       </c>
       <c r="AL7">
-        <v>675</v>
+        <v>824</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>33.3</v>
       </c>
       <c r="AO7">
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1158,13 +1158,13 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>134991</v>
+        <v>163479</v>
       </c>
       <c r="D8">
-        <v>2410.6</v>
+        <v>2919.3</v>
       </c>
       <c r="E8">
-        <v>3850.3</v>
+        <v>4744</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>3.8</v>
       </c>
       <c r="H8">
-        <v>1382</v>
+        <v>1689.5</v>
       </c>
       <c r="I8">
-        <v>2927</v>
+        <v>3722.5</v>
       </c>
       <c r="J8">
-        <v>19900</v>
+        <v>24791</v>
       </c>
       <c r="K8">
         <v>56</v>
       </c>
       <c r="L8">
-        <v>3214.1</v>
+        <v>3892.4</v>
       </c>
       <c r="M8">
         <v>42</v>
@@ -1197,34 +1197,34 @@
         <v>0.6</v>
       </c>
       <c r="P8">
-        <v>98246</v>
+        <v>116359</v>
       </c>
       <c r="Q8">
-        <v>1754.4</v>
+        <v>2077.8</v>
       </c>
       <c r="R8">
-        <v>3465.8</v>
+        <v>4017.7</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>14</v>
+        <v>18.8</v>
       </c>
       <c r="U8">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="V8">
-        <v>1953.2</v>
+        <v>2326.5</v>
       </c>
       <c r="W8">
-        <v>18016</v>
+        <v>20340</v>
       </c>
       <c r="X8">
         <v>56</v>
       </c>
       <c r="Y8">
-        <v>2232.9</v>
+        <v>2644.5</v>
       </c>
       <c r="Z8">
         <v>44</v>
@@ -1236,13 +1236,13 @@
         <v>0.7</v>
       </c>
       <c r="AC8">
-        <v>41054</v>
+        <v>43878</v>
       </c>
       <c r="AD8">
-        <v>733.1</v>
+        <v>783.5</v>
       </c>
       <c r="AE8">
-        <v>1194.1</v>
+        <v>839.4</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1251,28 +1251,28 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>286</v>
+        <v>451.5</v>
       </c>
       <c r="AI8">
-        <v>1054</v>
+        <v>1221.2</v>
       </c>
       <c r="AJ8">
-        <v>7154</v>
+        <v>3465</v>
       </c>
       <c r="AK8">
         <v>56</v>
       </c>
       <c r="AL8">
-        <v>1324.3</v>
+        <v>1070.2</v>
       </c>
       <c r="AM8">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AN8">
-        <v>55.4</v>
+        <v>73.2</v>
       </c>
       <c r="AO8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1281,34 +1281,34 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>20678</v>
+        <v>24894</v>
       </c>
       <c r="D9">
-        <v>713</v>
+        <v>858.4</v>
       </c>
       <c r="E9">
-        <v>721.5</v>
+        <v>850</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="H9">
-        <v>479</v>
+        <v>587</v>
       </c>
       <c r="I9">
-        <v>988</v>
+        <v>1248</v>
       </c>
       <c r="J9">
-        <v>2868</v>
+        <v>3423</v>
       </c>
       <c r="K9">
         <v>29</v>
       </c>
       <c r="L9">
-        <v>899</v>
+        <v>1082.3</v>
       </c>
       <c r="M9">
         <v>23</v>
@@ -1317,16 +1317,16 @@
         <v>79.3</v>
       </c>
       <c r="O9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P9">
-        <v>4333</v>
+        <v>4893</v>
       </c>
       <c r="Q9">
-        <v>149.4</v>
+        <v>168.7</v>
       </c>
       <c r="R9">
-        <v>218</v>
+        <v>228.2</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>7</v>
       </c>
       <c r="U9">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="V9">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="W9">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="X9">
         <v>29</v>
       </c>
       <c r="Y9">
-        <v>188.4</v>
+        <v>212.7</v>
       </c>
       <c r="Z9">
         <v>23</v>
@@ -1356,46 +1356,46 @@
         <v>79.3</v>
       </c>
       <c r="AB9">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC9">
-        <v>14054</v>
+        <v>19372</v>
       </c>
       <c r="AD9">
-        <v>484.6</v>
+        <v>668</v>
       </c>
       <c r="AE9">
-        <v>467.5</v>
+        <v>497.3</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AH9">
-        <v>461</v>
+        <v>560</v>
       </c>
       <c r="AI9">
-        <v>728</v>
+        <v>892</v>
       </c>
       <c r="AJ9">
-        <v>1774</v>
+        <v>1988</v>
       </c>
       <c r="AK9">
         <v>29</v>
       </c>
       <c r="AL9">
-        <v>702.7</v>
+        <v>774.9</v>
       </c>
       <c r="AM9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AN9">
-        <v>69</v>
+        <v>86.2</v>
       </c>
       <c r="AO9">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1404,13 +1404,13 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>73415</v>
+        <v>87421</v>
       </c>
       <c r="D10">
-        <v>1005.7</v>
+        <v>1197.5</v>
       </c>
       <c r="E10">
-        <v>1201.5</v>
+        <v>1477.5</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1419,37 +1419,37 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>724</v>
+        <v>586</v>
       </c>
       <c r="I10">
-        <v>1667</v>
+        <v>2023</v>
       </c>
       <c r="J10">
-        <v>5214</v>
+        <v>5857</v>
       </c>
       <c r="K10">
         <v>73</v>
       </c>
       <c r="L10">
-        <v>1498.3</v>
+        <v>1821.3</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10">
-        <v>67.09999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="O10">
         <v>0.3</v>
       </c>
       <c r="P10">
-        <v>18504</v>
+        <v>21161</v>
       </c>
       <c r="Q10">
-        <v>253.5</v>
+        <v>289.9</v>
       </c>
       <c r="R10">
-        <v>347.3</v>
+        <v>405.9</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="V10">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="W10">
-        <v>1397</v>
+        <v>1654</v>
       </c>
       <c r="X10">
         <v>73</v>
       </c>
       <c r="Y10">
-        <v>362.8</v>
+        <v>423.2</v>
       </c>
       <c r="Z10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA10">
-        <v>69.90000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="AB10">
         <v>0.4</v>
       </c>
       <c r="AC10">
-        <v>50245</v>
+        <v>43623</v>
       </c>
       <c r="AD10">
-        <v>688.3</v>
+        <v>597.6</v>
       </c>
       <c r="AE10">
-        <v>1106.7</v>
+        <v>766</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1497,28 +1497,28 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="AI10">
-        <v>920</v>
+        <v>1054</v>
       </c>
       <c r="AJ10">
-        <v>6327</v>
+        <v>2592</v>
       </c>
       <c r="AK10">
         <v>73</v>
       </c>
       <c r="AL10">
-        <v>1256.1</v>
+        <v>948.3</v>
       </c>
       <c r="AM10">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AN10">
-        <v>54.8</v>
+        <v>63</v>
       </c>
       <c r="AO10">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1527,13 +1527,13 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>22160</v>
+        <v>30307</v>
       </c>
       <c r="D11">
-        <v>651.8</v>
+        <v>891.4</v>
       </c>
       <c r="E11">
-        <v>2551.9</v>
+        <v>3930.1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1545,34 +1545,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>386</v>
+        <v>259</v>
       </c>
       <c r="J11">
-        <v>14888</v>
+        <v>22972</v>
       </c>
       <c r="K11">
         <v>34</v>
       </c>
       <c r="L11">
-        <v>1846.7</v>
+        <v>2755.2</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N11">
-        <v>35.3</v>
+        <v>32.4</v>
       </c>
       <c r="O11">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="P11">
-        <v>12319</v>
+        <v>19474</v>
       </c>
       <c r="Q11">
-        <v>362.3</v>
+        <v>572.8</v>
       </c>
       <c r="R11">
-        <v>1783.8</v>
+        <v>3030.3</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1584,34 +1584,34 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>52.8</v>
+        <v>36.5</v>
       </c>
       <c r="W11">
-        <v>10421</v>
+        <v>17700</v>
       </c>
       <c r="X11">
         <v>34</v>
       </c>
       <c r="Y11">
-        <v>1026.6</v>
+        <v>1770.4</v>
       </c>
       <c r="Z11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA11">
-        <v>35.3</v>
+        <v>32.4</v>
       </c>
       <c r="AB11">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AC11">
-        <v>22806</v>
+        <v>8507</v>
       </c>
       <c r="AD11">
-        <v>670.8</v>
+        <v>250.2</v>
       </c>
       <c r="AE11">
-        <v>1830.5</v>
+        <v>332.5</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1623,25 +1623,25 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="AJ11">
-        <v>6887</v>
+        <v>1112</v>
       </c>
       <c r="AK11">
         <v>34</v>
       </c>
       <c r="AL11">
-        <v>2850.8</v>
+        <v>531.7</v>
       </c>
       <c r="AM11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AN11">
-        <v>23.5</v>
+        <v>47.1</v>
       </c>
       <c r="AO11">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1650,13 +1650,13 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>112332</v>
+        <v>129860</v>
       </c>
       <c r="D12">
-        <v>826</v>
+        <v>954.9</v>
       </c>
       <c r="E12">
-        <v>1570.7</v>
+        <v>1883.2</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1668,34 +1668,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>916</v>
+        <v>970.2</v>
       </c>
       <c r="J12">
-        <v>8541</v>
+        <v>9810</v>
       </c>
       <c r="K12">
         <v>136</v>
       </c>
       <c r="L12">
-        <v>1702</v>
+        <v>2094.5</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N12">
-        <v>48.5</v>
+        <v>45.6</v>
       </c>
       <c r="O12">
         <v>-0.4</v>
       </c>
       <c r="P12">
-        <v>37235</v>
+        <v>43519</v>
       </c>
       <c r="Q12">
-        <v>273.8</v>
+        <v>320</v>
       </c>
       <c r="R12">
-        <v>780.2</v>
+        <v>915.6</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1707,34 +1707,34 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>158.8</v>
+        <v>189</v>
       </c>
       <c r="W12">
-        <v>6050</v>
+        <v>6901</v>
       </c>
       <c r="X12">
         <v>136</v>
       </c>
       <c r="Y12">
-        <v>564.2</v>
+        <v>690.8</v>
       </c>
       <c r="Z12">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA12">
-        <v>48.5</v>
+        <v>46.3</v>
       </c>
       <c r="AB12">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AC12">
-        <v>41868</v>
+        <v>76513</v>
       </c>
       <c r="AD12">
-        <v>307.9</v>
+        <v>562.6</v>
       </c>
       <c r="AE12">
-        <v>779.3</v>
+        <v>1107.1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1743,28 +1743,28 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="AI12">
-        <v>74.5</v>
+        <v>817.2</v>
       </c>
       <c r="AJ12">
-        <v>6448</v>
+        <v>8295</v>
       </c>
       <c r="AK12">
         <v>136</v>
       </c>
       <c r="AL12">
-        <v>1131.6</v>
+        <v>1034</v>
       </c>
       <c r="AM12">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AN12">
-        <v>27.2</v>
+        <v>54.4</v>
       </c>
       <c r="AO12">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -1773,34 +1773,34 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>96622</v>
+        <v>117690</v>
       </c>
       <c r="D13">
-        <v>1061.8</v>
+        <v>1293.3</v>
       </c>
       <c r="E13">
-        <v>1912</v>
+        <v>2351.7</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="H13">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="I13">
-        <v>1529</v>
+        <v>1762.5</v>
       </c>
       <c r="J13">
-        <v>14118</v>
+        <v>16882</v>
       </c>
       <c r="K13">
         <v>91</v>
       </c>
       <c r="L13">
-        <v>1380.3</v>
+        <v>1681.3</v>
       </c>
       <c r="M13">
         <v>70</v>
@@ -1812,13 +1812,13 @@
         <v>0.7</v>
       </c>
       <c r="P13">
-        <v>24980</v>
+        <v>30471</v>
       </c>
       <c r="Q13">
-        <v>274.5</v>
+        <v>334.8</v>
       </c>
       <c r="R13">
-        <v>573.9</v>
+        <v>730.9</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1827,19 +1827,19 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="V13">
-        <v>259.5</v>
+        <v>283.5</v>
       </c>
       <c r="W13">
-        <v>3471</v>
+        <v>4768</v>
       </c>
       <c r="X13">
         <v>91</v>
       </c>
       <c r="Y13">
-        <v>362</v>
+        <v>441.6</v>
       </c>
       <c r="Z13">
         <v>69</v>
@@ -1851,43 +1851,43 @@
         <v>0.6</v>
       </c>
       <c r="AC13">
-        <v>49549</v>
+        <v>51123</v>
       </c>
       <c r="AD13">
-        <v>544.5</v>
+        <v>561.8</v>
       </c>
       <c r="AE13">
-        <v>1006.1</v>
+        <v>577.7</v>
       </c>
       <c r="AF13">
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="AI13">
-        <v>757.5</v>
+        <v>970</v>
       </c>
       <c r="AJ13">
-        <v>6047</v>
+        <v>2634</v>
       </c>
       <c r="AK13">
         <v>91</v>
       </c>
       <c r="AL13">
-        <v>1126.1</v>
+        <v>751.8</v>
       </c>
       <c r="AM13">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AN13">
-        <v>48.4</v>
+        <v>74.7</v>
       </c>
       <c r="AO13">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -1896,13 +1896,13 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>48122</v>
+        <v>57326</v>
       </c>
       <c r="D14">
-        <v>802</v>
+        <v>955.4</v>
       </c>
       <c r="E14">
-        <v>946.6</v>
+        <v>1119.4</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1911,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>451.5</v>
+        <v>611.5</v>
       </c>
       <c r="I14">
-        <v>1373.2</v>
+        <v>1706.8</v>
       </c>
       <c r="J14">
-        <v>4076</v>
+        <v>4938</v>
       </c>
       <c r="K14">
         <v>60</v>
       </c>
       <c r="L14">
-        <v>1119.1</v>
+        <v>1333.2</v>
       </c>
       <c r="M14">
         <v>43</v>
@@ -1935,13 +1935,13 @@
         <v>0.5</v>
       </c>
       <c r="P14">
-        <v>10143</v>
+        <v>12183</v>
       </c>
       <c r="Q14">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="R14">
-        <v>242.6</v>
+        <v>291.4</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1950,19 +1950,19 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="V14">
-        <v>183.2</v>
+        <v>210</v>
       </c>
       <c r="W14">
-        <v>1050</v>
+        <v>1275</v>
       </c>
       <c r="X14">
         <v>60</v>
       </c>
       <c r="Y14">
-        <v>241.5</v>
+        <v>290.1</v>
       </c>
       <c r="Z14">
         <v>42</v>
@@ -1974,13 +1974,13 @@
         <v>0.4</v>
       </c>
       <c r="AC14">
-        <v>31355</v>
+        <v>36491</v>
       </c>
       <c r="AD14">
-        <v>522.6</v>
+        <v>608.2</v>
       </c>
       <c r="AE14">
-        <v>744.5</v>
+        <v>730.1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1989,28 +1989,28 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="AI14">
-        <v>802.5</v>
+        <v>938.5</v>
       </c>
       <c r="AJ14">
-        <v>3100</v>
+        <v>3150</v>
       </c>
       <c r="AK14">
         <v>60</v>
       </c>
       <c r="AL14">
-        <v>1161.3</v>
+        <v>868.8</v>
       </c>
       <c r="AM14">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AN14">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AO14">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2019,13 +2019,13 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>48891</v>
+        <v>57195</v>
       </c>
       <c r="D15">
-        <v>776</v>
+        <v>907.9</v>
       </c>
       <c r="E15">
-        <v>1208.8</v>
+        <v>1430.9</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2034,37 +2034,37 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15">
-        <v>1211.5</v>
+        <v>1372.5</v>
       </c>
       <c r="J15">
-        <v>5793</v>
+        <v>6588</v>
       </c>
       <c r="K15">
         <v>63</v>
       </c>
       <c r="L15">
-        <v>1396.9</v>
+        <v>1682.2</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N15">
-        <v>55.6</v>
+        <v>54</v>
       </c>
       <c r="O15">
         <v>-0.1</v>
       </c>
       <c r="P15">
-        <v>6148</v>
+        <v>6842</v>
       </c>
       <c r="Q15">
-        <v>97.59999999999999</v>
+        <v>108.6</v>
       </c>
       <c r="R15">
-        <v>167.6</v>
+        <v>192.2</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2076,34 +2076,34 @@
         <v>6</v>
       </c>
       <c r="V15">
-        <v>166.5</v>
+        <v>173.5</v>
       </c>
       <c r="W15">
-        <v>938</v>
+        <v>1056</v>
       </c>
       <c r="X15">
         <v>63</v>
       </c>
       <c r="Y15">
-        <v>170.8</v>
+        <v>195.5</v>
       </c>
       <c r="Z15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA15">
-        <v>57.1</v>
+        <v>55.6</v>
       </c>
       <c r="AB15">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="AC15">
-        <v>68378</v>
+        <v>40613</v>
       </c>
       <c r="AD15">
-        <v>1085.4</v>
+        <v>644.7</v>
       </c>
       <c r="AE15">
-        <v>2553.7</v>
+        <v>893.5</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2112,28 +2112,28 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="AI15">
-        <v>944</v>
+        <v>1125.5</v>
       </c>
       <c r="AJ15">
-        <v>13336</v>
+        <v>3597</v>
       </c>
       <c r="AK15">
         <v>63</v>
       </c>
       <c r="AL15">
-        <v>2205.7</v>
+        <v>1097.6</v>
       </c>
       <c r="AM15">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AN15">
-        <v>49.2</v>
+        <v>58.7</v>
       </c>
       <c r="AO15">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2142,13 +2142,13 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>80143</v>
+        <v>94524</v>
       </c>
       <c r="D16">
-        <v>1335.7</v>
+        <v>1575.4</v>
       </c>
       <c r="E16">
-        <v>3208.6</v>
+        <v>3856.6</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2157,19 +2157,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="I16">
-        <v>1353.5</v>
+        <v>1528</v>
       </c>
       <c r="J16">
-        <v>18330</v>
+        <v>23112</v>
       </c>
       <c r="K16">
         <v>60</v>
       </c>
       <c r="L16">
-        <v>2109</v>
+        <v>2487.5</v>
       </c>
       <c r="M16">
         <v>38</v>
@@ -2181,13 +2181,13 @@
         <v>0.2</v>
       </c>
       <c r="P16">
-        <v>15536</v>
+        <v>18087</v>
       </c>
       <c r="Q16">
-        <v>258.9</v>
+        <v>301.4</v>
       </c>
       <c r="R16">
-        <v>726</v>
+        <v>840.8</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2196,37 +2196,37 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>41.5</v>
+        <v>54</v>
       </c>
       <c r="V16">
-        <v>180</v>
+        <v>194.5</v>
       </c>
       <c r="W16">
-        <v>4588</v>
+        <v>5485</v>
       </c>
       <c r="X16">
         <v>60</v>
       </c>
       <c r="Y16">
-        <v>398.4</v>
+        <v>452.2</v>
       </c>
       <c r="Z16">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA16">
-        <v>65</v>
+        <v>66.7</v>
       </c>
       <c r="AB16">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AC16">
-        <v>30747</v>
+        <v>38215</v>
       </c>
       <c r="AD16">
-        <v>512.4</v>
+        <v>636.9</v>
       </c>
       <c r="AE16">
-        <v>863.6</v>
+        <v>782.4</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2235,28 +2235,28 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>225</v>
+        <v>372.5</v>
       </c>
       <c r="AI16">
-        <v>774</v>
+        <v>1038.5</v>
       </c>
       <c r="AJ16">
-        <v>5694</v>
+        <v>2973</v>
       </c>
       <c r="AK16">
         <v>60</v>
       </c>
       <c r="AL16">
-        <v>931.7</v>
+        <v>979.9</v>
       </c>
       <c r="AM16">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AN16">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO16">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2265,13 +2265,13 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>101624</v>
+        <v>104534</v>
       </c>
       <c r="D17">
-        <v>1302.9</v>
+        <v>1340.2</v>
       </c>
       <c r="E17">
-        <v>1818.1</v>
+        <v>1928.2</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2280,37 +2280,37 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>578</v>
+        <v>628.5</v>
       </c>
       <c r="I17">
-        <v>1830.2</v>
+        <v>1851.5</v>
       </c>
       <c r="J17">
-        <v>8460</v>
+        <v>9116</v>
       </c>
       <c r="K17">
         <v>78</v>
       </c>
       <c r="L17">
-        <v>1992.6</v>
+        <v>2133.3</v>
       </c>
       <c r="M17">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N17">
-        <v>65.40000000000001</v>
+        <v>62.8</v>
       </c>
       <c r="O17">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P17">
-        <v>63597</v>
+        <v>65960</v>
       </c>
       <c r="Q17">
-        <v>815.3</v>
+        <v>845.6</v>
       </c>
       <c r="R17">
-        <v>1865.1</v>
+        <v>2000.7</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2319,37 +2319,37 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="V17">
-        <v>589.8</v>
+        <v>539.2</v>
       </c>
       <c r="W17">
-        <v>12827</v>
+        <v>13652</v>
       </c>
       <c r="X17">
         <v>78</v>
       </c>
       <c r="Y17">
-        <v>1223</v>
+        <v>1319.2</v>
       </c>
       <c r="Z17">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AA17">
-        <v>66.7</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="AB17">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC17">
-        <v>44291</v>
+        <v>51544</v>
       </c>
       <c r="AD17">
-        <v>567.8</v>
+        <v>660.8</v>
       </c>
       <c r="AE17">
-        <v>1034.6</v>
+        <v>773.7</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2358,25 +2358,25 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>44.5</v>
+        <v>448.5</v>
       </c>
       <c r="AI17">
-        <v>754.5</v>
+        <v>1151.2</v>
       </c>
       <c r="AJ17">
-        <v>5746</v>
+        <v>3458</v>
       </c>
       <c r="AK17">
         <v>78</v>
       </c>
       <c r="AL17">
-        <v>1135.7</v>
+        <v>937.2</v>
       </c>
       <c r="AM17">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="AN17">
-        <v>50</v>
+        <v>70.5</v>
       </c>
       <c r="AO17">
         <v>0.4</v>
@@ -2390,13 +2390,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>1284</v>
+        <v>1732</v>
       </c>
       <c r="D18">
-        <v>80.2</v>
+        <v>108.2</v>
       </c>
       <c r="E18">
-        <v>299.3</v>
+        <v>411.1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1200</v>
+        <v>1648</v>
       </c>
       <c r="K18">
         <v>16</v>
       </c>
       <c r="L18">
-        <v>642</v>
+        <v>866</v>
       </c>
       <c r="M18">
         <v>2</v>
@@ -2429,13 +2429,13 @@
         <v>-1.6</v>
       </c>
       <c r="P18">
-        <v>463</v>
+        <v>659</v>
       </c>
       <c r="Q18">
-        <v>28.9</v>
+        <v>41.2</v>
       </c>
       <c r="R18">
-        <v>111.6</v>
+        <v>160.5</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>447</v>
+        <v>643</v>
       </c>
       <c r="X18">
         <v>16</v>
       </c>
       <c r="Y18">
-        <v>231.5</v>
+        <v>329.5</v>
       </c>
       <c r="Z18">
         <v>2</v>
@@ -2468,13 +2468,13 @@
         <v>-1.6</v>
       </c>
       <c r="AC18">
-        <v>842</v>
+        <v>2114</v>
       </c>
       <c r="AD18">
-        <v>52.6</v>
+        <v>132.1</v>
       </c>
       <c r="AE18">
-        <v>161</v>
+        <v>300.5</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2486,22 +2486,22 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="AJ18">
-        <v>619</v>
+        <v>981</v>
       </c>
       <c r="AK18">
         <v>16</v>
       </c>
       <c r="AL18">
-        <v>421</v>
+        <v>422.8</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AN18">
-        <v>12.5</v>
+        <v>31.2</v>
       </c>
       <c r="AO18">
         <v>-1</v>
@@ -2513,13 +2513,13 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>81712</v>
+        <v>90846</v>
       </c>
       <c r="D19">
-        <v>469.6</v>
+        <v>522.1</v>
       </c>
       <c r="E19">
-        <v>1555.9</v>
+        <v>1816</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2528,19 +2528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19">
-        <v>298.8</v>
+        <v>342.2</v>
       </c>
       <c r="J19">
-        <v>17279</v>
+        <v>20844</v>
       </c>
       <c r="K19">
         <v>174</v>
       </c>
       <c r="L19">
-        <v>860.1</v>
+        <v>956.3</v>
       </c>
       <c r="M19">
         <v>95</v>
@@ -2552,13 +2552,13 @@
         <v>-0.1</v>
       </c>
       <c r="P19">
-        <v>33762</v>
+        <v>37875</v>
       </c>
       <c r="Q19">
-        <v>194</v>
+        <v>217.7</v>
       </c>
       <c r="R19">
-        <v>726.5</v>
+        <v>880.8</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2570,16 +2570,16 @@
         <v>4</v>
       </c>
       <c r="V19">
-        <v>60.8</v>
+        <v>66.5</v>
       </c>
       <c r="W19">
-        <v>7809</v>
+        <v>9950</v>
       </c>
       <c r="X19">
         <v>174</v>
       </c>
       <c r="Y19">
-        <v>348.1</v>
+        <v>390.5</v>
       </c>
       <c r="Z19">
         <v>97</v>
@@ -2591,13 +2591,13 @@
         <v>-0.1</v>
       </c>
       <c r="AC19">
-        <v>35743</v>
+        <v>74167</v>
       </c>
       <c r="AD19">
-        <v>205.4</v>
+        <v>426.2</v>
       </c>
       <c r="AE19">
-        <v>428.6</v>
+        <v>710.3</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2606,28 +2606,28 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="AI19">
-        <v>233.5</v>
+        <v>590</v>
       </c>
       <c r="AJ19">
-        <v>2696</v>
+        <v>4927</v>
       </c>
       <c r="AK19">
         <v>174</v>
       </c>
       <c r="AL19">
-        <v>674.4</v>
+        <v>720.1</v>
       </c>
       <c r="AM19">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="AN19">
-        <v>30.5</v>
+        <v>59.2</v>
       </c>
       <c r="AO19">
-        <v>-0.3</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2636,13 +2636,13 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>100222</v>
+        <v>116751</v>
       </c>
       <c r="D20">
-        <v>393</v>
+        <v>457.8</v>
       </c>
       <c r="E20">
-        <v>1144.2</v>
+        <v>1336.9</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2651,37 +2651,37 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I20">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="J20">
-        <v>14162</v>
+        <v>16335</v>
       </c>
       <c r="K20">
         <v>255</v>
       </c>
       <c r="L20">
-        <v>668.1</v>
+        <v>783.6</v>
       </c>
       <c r="M20">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N20">
-        <v>58.8</v>
+        <v>58.4</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>33349</v>
+        <v>38945</v>
       </c>
       <c r="Q20">
-        <v>130.8</v>
+        <v>152.7</v>
       </c>
       <c r="R20">
-        <v>551.1</v>
+        <v>635.7</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2690,37 +2690,37 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V20">
-        <v>54.5</v>
+        <v>63.5</v>
       </c>
       <c r="W20">
-        <v>6662</v>
+        <v>7710</v>
       </c>
       <c r="X20">
         <v>255</v>
       </c>
       <c r="Y20">
-        <v>220.9</v>
+        <v>259.6</v>
       </c>
       <c r="Z20">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA20">
-        <v>59.2</v>
+        <v>58.8</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>41111</v>
+        <v>71759</v>
       </c>
       <c r="AD20">
-        <v>161.2</v>
+        <v>281.4</v>
       </c>
       <c r="AE20">
-        <v>502.8</v>
+        <v>420.9</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2729,28 +2729,28 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AI20">
-        <v>6</v>
+        <v>437.5</v>
       </c>
       <c r="AJ20">
-        <v>6335</v>
+        <v>2680</v>
       </c>
       <c r="AK20">
         <v>255</v>
       </c>
       <c r="AL20">
-        <v>642.4</v>
+        <v>488.2</v>
       </c>
       <c r="AM20">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="AN20">
-        <v>25.1</v>
+        <v>57.6</v>
       </c>
       <c r="AO20">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -2759,13 +2759,13 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>49307</v>
+        <v>54107</v>
       </c>
       <c r="D21">
-        <v>4108.9</v>
+        <v>4508.9</v>
       </c>
       <c r="E21">
-        <v>13695</v>
+        <v>15046.9</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2780,13 +2780,13 @@
         <v>28.2</v>
       </c>
       <c r="J21">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="K21">
         <v>12</v>
       </c>
       <c r="L21">
-        <v>12326.8</v>
+        <v>13526.8</v>
       </c>
       <c r="M21">
         <v>4</v>
@@ -2798,13 +2798,13 @@
         <v>-0.9</v>
       </c>
       <c r="P21">
-        <v>21313</v>
+        <v>25083</v>
       </c>
       <c r="Q21">
-        <v>1776.1</v>
+        <v>2090.2</v>
       </c>
       <c r="R21">
-        <v>6018.6</v>
+        <v>7095.5</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2816,16 +2816,16 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="W21">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="X21">
         <v>12</v>
       </c>
       <c r="Y21">
-        <v>5328.2</v>
+        <v>6270.8</v>
       </c>
       <c r="Z21">
         <v>4</v>
@@ -2837,13 +2837,13 @@
         <v>-0.9</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>265.7</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2855,22 +2855,25 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="AK21">
         <v>12</v>
       </c>
+      <c r="AL21">
+        <v>292.2</v>
+      </c>
       <c r="AM21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AO21">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -2879,13 +2882,13 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>175408</v>
+        <v>210347</v>
       </c>
       <c r="D22">
-        <v>1031.8</v>
+        <v>1237.3</v>
       </c>
       <c r="E22">
-        <v>1607.4</v>
+        <v>1898.7</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2894,19 +2897,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>449.5</v>
+        <v>519.5</v>
       </c>
       <c r="I22">
-        <v>1458.2</v>
+        <v>1779</v>
       </c>
       <c r="J22">
-        <v>11096</v>
+        <v>13295</v>
       </c>
       <c r="K22">
         <v>170</v>
       </c>
       <c r="L22">
-        <v>1437.8</v>
+        <v>1724.2</v>
       </c>
       <c r="M22">
         <v>122</v>
@@ -2918,13 +2921,13 @@
         <v>0.5</v>
       </c>
       <c r="P22">
-        <v>94061</v>
+        <v>112139</v>
       </c>
       <c r="Q22">
-        <v>553.3</v>
+        <v>659.6</v>
       </c>
       <c r="R22">
-        <v>1919.8</v>
+        <v>2269.9</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2933,19 +2936,19 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>77</v>
+        <v>97.5</v>
       </c>
       <c r="V22">
-        <v>361</v>
+        <v>430.8</v>
       </c>
       <c r="W22">
-        <v>20111</v>
+        <v>22462</v>
       </c>
       <c r="X22">
         <v>170</v>
       </c>
       <c r="Y22">
-        <v>771</v>
+        <v>919.2</v>
       </c>
       <c r="Z22">
         <v>122</v>
@@ -2957,13 +2960,13 @@
         <v>0.5</v>
       </c>
       <c r="AC22">
-        <v>70343</v>
+        <v>83972</v>
       </c>
       <c r="AD22">
-        <v>413.8</v>
+        <v>494</v>
       </c>
       <c r="AE22">
-        <v>966.8</v>
+        <v>587.4</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2972,28 +2975,28 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>356.5</v>
       </c>
       <c r="AI22">
-        <v>623.8</v>
+        <v>863.8</v>
       </c>
       <c r="AJ22">
-        <v>8880</v>
+        <v>3423</v>
       </c>
       <c r="AK22">
         <v>170</v>
       </c>
       <c r="AL22">
-        <v>890.4</v>
+        <v>677.2</v>
       </c>
       <c r="AM22">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="AN22">
-        <v>46.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="AO22">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -3002,13 +3005,13 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>42376</v>
+        <v>51913</v>
       </c>
       <c r="D23">
-        <v>605.4</v>
+        <v>741.6</v>
       </c>
       <c r="E23">
-        <v>1182.1</v>
+        <v>1618.6</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3017,37 +3020,37 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="I23">
-        <v>660.8</v>
+        <v>744.8</v>
       </c>
       <c r="J23">
-        <v>7613</v>
+        <v>11368</v>
       </c>
       <c r="K23">
         <v>70</v>
       </c>
       <c r="L23">
-        <v>1033.6</v>
+        <v>1366.1</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N23">
-        <v>58.6</v>
+        <v>54.3</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="P23">
-        <v>16010</v>
+        <v>18888</v>
       </c>
       <c r="Q23">
-        <v>228.7</v>
+        <v>269.8</v>
       </c>
       <c r="R23">
-        <v>449.2</v>
+        <v>551.6</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3059,34 +3062,34 @@
         <v>12.5</v>
       </c>
       <c r="V23">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="W23">
-        <v>1866</v>
+        <v>2288</v>
       </c>
       <c r="X23">
         <v>70</v>
       </c>
       <c r="Y23">
-        <v>363.9</v>
+        <v>460.7</v>
       </c>
       <c r="Z23">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA23">
-        <v>62.9</v>
+        <v>58.6</v>
       </c>
       <c r="AB23">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>18757</v>
+        <v>33841</v>
       </c>
       <c r="AD23">
-        <v>268</v>
+        <v>483.4</v>
       </c>
       <c r="AE23">
-        <v>486.7</v>
+        <v>691.5</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3095,28 +3098,28 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="AI23">
-        <v>352.8</v>
+        <v>754</v>
       </c>
       <c r="AJ23">
-        <v>1611</v>
+        <v>3251</v>
       </c>
       <c r="AK23">
         <v>70</v>
       </c>
       <c r="AL23">
-        <v>815.5</v>
+        <v>805.7</v>
       </c>
       <c r="AM23">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AN23">
-        <v>32.9</v>
+        <v>60</v>
       </c>
       <c r="AO23">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3125,13 +3128,13 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>116261</v>
+        <v>137583</v>
       </c>
       <c r="D24">
-        <v>717.7</v>
+        <v>849.3</v>
       </c>
       <c r="E24">
-        <v>1569.2</v>
+        <v>1892.9</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3140,19 +3143,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="I24">
-        <v>755.2</v>
+        <v>896.2</v>
       </c>
       <c r="J24">
-        <v>14101</v>
+        <v>17617</v>
       </c>
       <c r="K24">
         <v>162</v>
       </c>
       <c r="L24">
-        <v>1107.2</v>
+        <v>1310.3</v>
       </c>
       <c r="M24">
         <v>105</v>
@@ -3164,13 +3167,13 @@
         <v>0.2</v>
       </c>
       <c r="P24">
-        <v>57453</v>
+        <v>68919</v>
       </c>
       <c r="Q24">
-        <v>354.6</v>
+        <v>425.4</v>
       </c>
       <c r="R24">
-        <v>1633.9</v>
+        <v>2030.1</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3179,37 +3182,37 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>30</v>
+        <v>32.5</v>
       </c>
       <c r="V24">
-        <v>161.8</v>
+        <v>195.5</v>
       </c>
       <c r="W24">
-        <v>19557</v>
+        <v>24554</v>
       </c>
       <c r="X24">
         <v>162</v>
       </c>
       <c r="Y24">
-        <v>522.3</v>
+        <v>615.3</v>
       </c>
       <c r="Z24">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA24">
-        <v>67.90000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AB24">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC24">
-        <v>77126</v>
+        <v>81028</v>
       </c>
       <c r="AD24">
-        <v>476.1</v>
+        <v>500.2</v>
       </c>
       <c r="AE24">
-        <v>1683</v>
+        <v>766.9</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3218,25 +3221,25 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>30.5</v>
+        <v>212</v>
       </c>
       <c r="AI24">
-        <v>492</v>
+        <v>652</v>
       </c>
       <c r="AJ24">
-        <v>20246</v>
+        <v>5325</v>
       </c>
       <c r="AK24">
         <v>162</v>
       </c>
       <c r="AL24">
-        <v>918.2</v>
+        <v>692.5</v>
       </c>
       <c r="AM24">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="AN24">
-        <v>51.9</v>
+        <v>72.2</v>
       </c>
       <c r="AO24">
         <v>0.5</v>
@@ -3248,13 +3251,13 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>24056</v>
+        <v>29031</v>
       </c>
       <c r="D25">
-        <v>453.9</v>
+        <v>547.8</v>
       </c>
       <c r="E25">
-        <v>938.3</v>
+        <v>1114.2</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3263,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I25">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="J25">
-        <v>5535</v>
+        <v>6402</v>
       </c>
       <c r="K25">
         <v>53</v>
       </c>
       <c r="L25">
-        <v>801.9</v>
+        <v>967.7</v>
       </c>
       <c r="M25">
         <v>30</v>
@@ -3284,16 +3287,16 @@
         <v>56.6</v>
       </c>
       <c r="O25">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="P25">
-        <v>5594</v>
+        <v>7013</v>
       </c>
       <c r="Q25">
-        <v>105.5</v>
+        <v>132.3</v>
       </c>
       <c r="R25">
-        <v>203.1</v>
+        <v>253.7</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3302,19 +3305,19 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V25">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="W25">
-        <v>915</v>
+        <v>1182</v>
       </c>
       <c r="X25">
         <v>53</v>
       </c>
       <c r="Y25">
-        <v>199.8</v>
+        <v>250.5</v>
       </c>
       <c r="Z25">
         <v>28</v>
@@ -3326,13 +3329,13 @@
         <v>-0.2</v>
       </c>
       <c r="AC25">
-        <v>23088</v>
+        <v>23416</v>
       </c>
       <c r="AD25">
-        <v>435.6</v>
+        <v>441.8</v>
       </c>
       <c r="AE25">
-        <v>1116.3</v>
+        <v>498.8</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3341,28 +3344,28 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AI25">
-        <v>566</v>
+        <v>723</v>
       </c>
       <c r="AJ25">
-        <v>7664</v>
+        <v>1627</v>
       </c>
       <c r="AK25">
         <v>53</v>
       </c>
       <c r="AL25">
-        <v>1049.5</v>
+        <v>688.7</v>
       </c>
       <c r="AM25">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AN25">
-        <v>41.5</v>
+        <v>64.2</v>
       </c>
       <c r="AO25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -3371,13 +3374,13 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>161873</v>
+        <v>187167</v>
       </c>
       <c r="D26">
-        <v>489</v>
+        <v>565.5</v>
       </c>
       <c r="E26">
-        <v>2716</v>
+        <v>2924.3</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3389,34 +3392,34 @@
         <v>4</v>
       </c>
       <c r="I26">
-        <v>406</v>
+        <v>502</v>
       </c>
       <c r="J26">
-        <v>47580</v>
+        <v>50844</v>
       </c>
       <c r="K26">
         <v>331</v>
       </c>
       <c r="L26">
-        <v>941.1</v>
+        <v>1101</v>
       </c>
       <c r="M26">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N26">
-        <v>52</v>
+        <v>51.4</v>
       </c>
       <c r="O26">
         <v>-0.2</v>
       </c>
       <c r="P26">
-        <v>40496</v>
+        <v>47676</v>
       </c>
       <c r="Q26">
-        <v>122.3</v>
+        <v>144</v>
       </c>
       <c r="R26">
-        <v>565.2</v>
+        <v>690.9</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3425,37 +3428,37 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="W26">
-        <v>8505</v>
+        <v>10903</v>
       </c>
       <c r="X26">
         <v>331</v>
       </c>
       <c r="Y26">
-        <v>228.8</v>
+        <v>272.4</v>
       </c>
       <c r="Z26">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AA26">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="AB26">
         <v>-0.2</v>
       </c>
       <c r="AC26">
-        <v>102366</v>
+        <v>111400</v>
       </c>
       <c r="AD26">
-        <v>309.3</v>
+        <v>336.6</v>
       </c>
       <c r="AE26">
-        <v>2070.5</v>
+        <v>527.2</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3464,28 +3467,28 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AI26">
-        <v>75</v>
+        <v>511</v>
       </c>
       <c r="AJ26">
-        <v>36858</v>
+        <v>4716</v>
       </c>
       <c r="AK26">
         <v>331</v>
       </c>
       <c r="AL26">
-        <v>1190.3</v>
+        <v>540.8</v>
       </c>
       <c r="AM26">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="AN26">
-        <v>26</v>
+        <v>62.2</v>
       </c>
       <c r="AO26">
-        <v>-0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3494,13 +3497,13 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>275945</v>
+        <v>327430</v>
       </c>
       <c r="D27">
-        <v>756</v>
+        <v>897.1</v>
       </c>
       <c r="E27">
-        <v>2590.8</v>
+        <v>3265.3</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3509,37 +3512,37 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I27">
-        <v>707</v>
+        <v>815</v>
       </c>
       <c r="J27">
-        <v>43003</v>
+        <v>55081</v>
       </c>
       <c r="K27">
         <v>365</v>
       </c>
       <c r="L27">
-        <v>1179.3</v>
+        <v>1417.4</v>
       </c>
       <c r="M27">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N27">
-        <v>64.09999999999999</v>
+        <v>63.3</v>
       </c>
       <c r="O27">
         <v>0.2</v>
       </c>
       <c r="P27">
-        <v>78864</v>
+        <v>90857</v>
       </c>
       <c r="Q27">
-        <v>216.1</v>
+        <v>248.9</v>
       </c>
       <c r="R27">
-        <v>597.6</v>
+        <v>682.7</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3548,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V27">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="W27">
-        <v>6504</v>
+        <v>6452</v>
       </c>
       <c r="X27">
         <v>365</v>
       </c>
       <c r="Y27">
-        <v>335.6</v>
+        <v>386.6</v>
       </c>
       <c r="Z27">
         <v>235</v>
@@ -3572,13 +3575,13 @@
         <v>0.2</v>
       </c>
       <c r="AC27">
-        <v>79228</v>
+        <v>134895</v>
       </c>
       <c r="AD27">
-        <v>217.1</v>
+        <v>369.6</v>
       </c>
       <c r="AE27">
-        <v>451.8</v>
+        <v>549.8</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3587,28 +3590,28 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AI27">
-        <v>211</v>
+        <v>496</v>
       </c>
       <c r="AJ27">
-        <v>3100</v>
+        <v>3726</v>
       </c>
       <c r="AK27">
         <v>365</v>
       </c>
       <c r="AL27">
-        <v>733.6</v>
+        <v>569.2</v>
       </c>
       <c r="AM27">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="AN27">
-        <v>29.6</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="AO27">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3617,13 +3620,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>140169</v>
+        <v>165200</v>
       </c>
       <c r="D28">
-        <v>397.1</v>
+        <v>468</v>
       </c>
       <c r="E28">
-        <v>871.3</v>
+        <v>1031.8</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3632,37 +3635,37 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I28">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="J28">
-        <v>8769</v>
+        <v>10974</v>
       </c>
       <c r="K28">
         <v>353</v>
       </c>
       <c r="L28">
-        <v>704.4</v>
+        <v>826</v>
       </c>
       <c r="M28">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N28">
-        <v>56.4</v>
+        <v>56.7</v>
       </c>
       <c r="O28">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="P28">
-        <v>40220</v>
+        <v>46270</v>
       </c>
       <c r="Q28">
-        <v>113.9</v>
+        <v>131.1</v>
       </c>
       <c r="R28">
-        <v>459.4</v>
+        <v>514.9</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3671,37 +3674,37 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="W28">
-        <v>7636</v>
+        <v>8450</v>
       </c>
       <c r="X28">
         <v>353</v>
       </c>
       <c r="Y28">
-        <v>197.2</v>
+        <v>225.7</v>
       </c>
       <c r="Z28">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA28">
-        <v>57.8</v>
+        <v>58.1</v>
       </c>
       <c r="AB28">
         <v>-0</v>
       </c>
       <c r="AC28">
-        <v>108000</v>
+        <v>122077</v>
       </c>
       <c r="AD28">
-        <v>305.9</v>
+        <v>345.8</v>
       </c>
       <c r="AE28">
-        <v>2007</v>
+        <v>543.8</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3710,28 +3713,28 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AI28">
-        <v>184</v>
+        <v>530</v>
       </c>
       <c r="AJ28">
-        <v>36948</v>
+        <v>5226</v>
       </c>
       <c r="AK28">
         <v>353</v>
       </c>
       <c r="AL28">
-        <v>1038.5</v>
+        <v>521.7</v>
       </c>
       <c r="AM28">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="AN28">
-        <v>29.5</v>
+        <v>66.3</v>
       </c>
       <c r="AO28">
-        <v>-0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -3740,13 +3743,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>42573</v>
+        <v>50953</v>
       </c>
       <c r="D29">
-        <v>327.5</v>
+        <v>391.9</v>
       </c>
       <c r="E29">
-        <v>714.4</v>
+        <v>881.1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3758,34 +3761,34 @@
         <v>16.5</v>
       </c>
       <c r="I29">
-        <v>390.2</v>
+        <v>468.5</v>
       </c>
       <c r="J29">
-        <v>4906</v>
+        <v>6478</v>
       </c>
       <c r="K29">
         <v>130</v>
       </c>
       <c r="L29">
-        <v>575.3</v>
+        <v>679.4</v>
       </c>
       <c r="M29">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N29">
-        <v>56.9</v>
+        <v>57.7</v>
       </c>
       <c r="O29">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="P29">
-        <v>11281</v>
+        <v>13563</v>
       </c>
       <c r="Q29">
-        <v>86.8</v>
+        <v>104.3</v>
       </c>
       <c r="R29">
-        <v>319.8</v>
+        <v>400.8</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3797,16 +3800,16 @@
         <v>3.5</v>
       </c>
       <c r="V29">
-        <v>44.2</v>
+        <v>54.5</v>
       </c>
       <c r="W29">
-        <v>3183</v>
+        <v>4083</v>
       </c>
       <c r="X29">
         <v>130</v>
       </c>
       <c r="Y29">
-        <v>150.4</v>
+        <v>180.8</v>
       </c>
       <c r="Z29">
         <v>75</v>
@@ -3818,13 +3821,13 @@
         <v>-0</v>
       </c>
       <c r="AC29">
-        <v>31156</v>
+        <v>46084</v>
       </c>
       <c r="AD29">
-        <v>239.7</v>
+        <v>354.5</v>
       </c>
       <c r="AE29">
-        <v>503.8</v>
+        <v>544</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3833,28 +3836,28 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>123.5</v>
       </c>
       <c r="AI29">
-        <v>279.5</v>
+        <v>491</v>
       </c>
       <c r="AJ29">
-        <v>3096</v>
+        <v>2486</v>
       </c>
       <c r="AK29">
         <v>130</v>
       </c>
       <c r="AL29">
-        <v>610.9</v>
+        <v>576</v>
       </c>
       <c r="AM29">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AN29">
-        <v>39.2</v>
+        <v>61.5</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -3863,13 +3866,13 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>73329</v>
+        <v>84485</v>
       </c>
       <c r="D30">
-        <v>452.6</v>
+        <v>521.5</v>
       </c>
       <c r="E30">
-        <v>853.7</v>
+        <v>1026.3</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3878,37 +3881,37 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>495.8</v>
+        <v>532.2</v>
       </c>
       <c r="J30">
-        <v>4765</v>
+        <v>6036</v>
       </c>
       <c r="K30">
         <v>162</v>
       </c>
       <c r="L30">
-        <v>852.7</v>
+        <v>1017.9</v>
       </c>
       <c r="M30">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N30">
-        <v>53.1</v>
+        <v>51.2</v>
       </c>
       <c r="O30">
         <v>-0.2</v>
       </c>
       <c r="P30">
-        <v>32826</v>
+        <v>38222</v>
       </c>
       <c r="Q30">
-        <v>202.6</v>
+        <v>235.9</v>
       </c>
       <c r="R30">
-        <v>937.3</v>
+        <v>1164.8</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3917,37 +3920,37 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V30">
-        <v>107.8</v>
+        <v>108.2</v>
       </c>
       <c r="W30">
-        <v>11227</v>
+        <v>13956</v>
       </c>
       <c r="X30">
         <v>162</v>
       </c>
       <c r="Y30">
-        <v>364.7</v>
+        <v>434.3</v>
       </c>
       <c r="Z30">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA30">
-        <v>55.6</v>
+        <v>54.3</v>
       </c>
       <c r="AB30">
         <v>-0.1</v>
       </c>
       <c r="AC30">
-        <v>32145</v>
+        <v>53450</v>
       </c>
       <c r="AD30">
-        <v>198.4</v>
+        <v>329.9</v>
       </c>
       <c r="AE30">
-        <v>589.7</v>
+        <v>533.9</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3956,28 +3959,28 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AI30">
-        <v>89.2</v>
+        <v>476.2</v>
       </c>
       <c r="AJ30">
-        <v>6145</v>
+        <v>3366</v>
       </c>
       <c r="AK30">
         <v>162</v>
       </c>
       <c r="AL30">
-        <v>747.6</v>
+        <v>574.7</v>
       </c>
       <c r="AM30">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AN30">
-        <v>26.5</v>
+        <v>57.4</v>
       </c>
       <c r="AO30">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -3986,13 +3989,13 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>94929</v>
+        <v>110327</v>
       </c>
       <c r="D31">
-        <v>659.2</v>
+        <v>766.2</v>
       </c>
       <c r="E31">
-        <v>1271.3</v>
+        <v>1517.1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -4001,37 +4004,37 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>188</v>
+        <v>215.5</v>
       </c>
       <c r="I31">
-        <v>908.2</v>
+        <v>1015</v>
       </c>
       <c r="J31">
-        <v>10957</v>
+        <v>13083</v>
       </c>
       <c r="K31">
         <v>144</v>
       </c>
       <c r="L31">
-        <v>1043.2</v>
+        <v>1225.9</v>
       </c>
       <c r="M31">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N31">
-        <v>63.2</v>
+        <v>62.5</v>
       </c>
       <c r="O31">
         <v>0.2</v>
       </c>
       <c r="P31">
-        <v>29914</v>
+        <v>33064</v>
       </c>
       <c r="Q31">
-        <v>207.7</v>
+        <v>229.6</v>
       </c>
       <c r="R31">
-        <v>482.8</v>
+        <v>558.3</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4040,37 +4043,37 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V31">
-        <v>182.2</v>
+        <v>200.2</v>
       </c>
       <c r="W31">
-        <v>3864</v>
+        <v>4680</v>
       </c>
       <c r="X31">
         <v>144</v>
       </c>
       <c r="Y31">
-        <v>321.7</v>
+        <v>359.4</v>
       </c>
       <c r="Z31">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA31">
-        <v>64.59999999999999</v>
+        <v>63.9</v>
       </c>
       <c r="AB31">
         <v>0.2</v>
       </c>
       <c r="AC31">
-        <v>61856</v>
+        <v>62865</v>
       </c>
       <c r="AD31">
-        <v>429.6</v>
+        <v>436.6</v>
       </c>
       <c r="AE31">
-        <v>1870</v>
+        <v>609.3</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -4079,28 +4082,28 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>185.5</v>
       </c>
       <c r="AI31">
-        <v>399.5</v>
+        <v>628.5</v>
       </c>
       <c r="AJ31">
-        <v>21892</v>
+        <v>4105</v>
       </c>
       <c r="AK31">
         <v>144</v>
       </c>
       <c r="AL31">
-        <v>1048.4</v>
+        <v>622.4</v>
       </c>
       <c r="AM31">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AN31">
-        <v>41</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="AO31">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -4111,31 +4114,31 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="D32">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="F32">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="G32">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="H32">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="I32">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="J32">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -4147,31 +4150,31 @@
         <v>1.5</v>
       </c>
       <c r="P32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X32">
         <v>1</v>
       </c>
       <c r="Y32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z32">
         <v>1</v>
@@ -4183,31 +4186,31 @@
         <v>1.5</v>
       </c>
       <c r="AC32">
-        <v>808</v>
+        <v>890</v>
       </c>
       <c r="AD32">
-        <v>808</v>
+        <v>890</v>
       </c>
       <c r="AF32">
-        <v>808</v>
+        <v>890</v>
       </c>
       <c r="AG32">
-        <v>808</v>
+        <v>890</v>
       </c>
       <c r="AH32">
-        <v>808</v>
+        <v>890</v>
       </c>
       <c r="AI32">
-        <v>808</v>
+        <v>890</v>
       </c>
       <c r="AJ32">
-        <v>808</v>
+        <v>890</v>
       </c>
       <c r="AK32">
         <v>1</v>
       </c>
       <c r="AL32">
-        <v>808</v>
+        <v>890</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -4216,7 +4219,7 @@
         <v>100</v>
       </c>
       <c r="AO32">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -4225,91 +4228,91 @@
         <v>24</v>
       </c>
       <c r="C33">
-        <v>30407</v>
+        <v>35759</v>
       </c>
       <c r="D33">
-        <v>2339</v>
+        <v>2750.7</v>
       </c>
       <c r="E33">
-        <v>1385.3</v>
+        <v>1647</v>
       </c>
       <c r="F33">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1505</v>
+        <v>1795</v>
       </c>
       <c r="H33">
-        <v>2301</v>
+        <v>2690</v>
       </c>
       <c r="I33">
-        <v>3072</v>
+        <v>3194</v>
       </c>
       <c r="J33">
-        <v>4910</v>
+        <v>5866</v>
       </c>
       <c r="K33">
         <v>13</v>
       </c>
       <c r="L33">
-        <v>2339</v>
+        <v>2979.9</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>92.3</v>
       </c>
       <c r="O33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="P33">
-        <v>6429</v>
+        <v>7397</v>
       </c>
       <c r="Q33">
-        <v>494.5</v>
+        <v>569</v>
       </c>
       <c r="R33">
-        <v>462.9</v>
+        <v>528.7</v>
       </c>
       <c r="S33">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="U33">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="V33">
-        <v>485</v>
+        <v>568</v>
       </c>
       <c r="W33">
-        <v>1707</v>
+        <v>1911</v>
       </c>
       <c r="X33">
         <v>13</v>
       </c>
       <c r="Y33">
-        <v>494.5</v>
+        <v>616.4</v>
       </c>
       <c r="Z33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA33">
-        <v>100</v>
+        <v>92.3</v>
       </c>
       <c r="AB33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AC33">
-        <v>4871</v>
+        <v>6920</v>
       </c>
       <c r="AD33">
-        <v>374.7</v>
+        <v>532.3</v>
       </c>
       <c r="AE33">
-        <v>545.8</v>
+        <v>641.5</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -4318,28 +4321,28 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>59</v>
+        <v>347</v>
       </c>
       <c r="AI33">
-        <v>651</v>
+        <v>861</v>
       </c>
       <c r="AJ33">
-        <v>1710</v>
+        <v>2094</v>
       </c>
       <c r="AK33">
         <v>13</v>
       </c>
       <c r="AL33">
-        <v>695.9</v>
+        <v>768.9</v>
       </c>
       <c r="AM33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN33">
-        <v>53.8</v>
+        <v>69.2</v>
       </c>
       <c r="AO33">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -4348,34 +4351,34 @@
         <v>26</v>
       </c>
       <c r="C34">
-        <v>14620</v>
+        <v>17718</v>
       </c>
       <c r="D34">
-        <v>1329.1</v>
+        <v>1610.7</v>
       </c>
       <c r="E34">
-        <v>1311</v>
+        <v>1708.4</v>
       </c>
       <c r="F34">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G34">
-        <v>438.5</v>
+        <v>507</v>
       </c>
       <c r="H34">
-        <v>745</v>
+        <v>811</v>
       </c>
       <c r="I34">
-        <v>1636</v>
+        <v>1895</v>
       </c>
       <c r="J34">
-        <v>4032</v>
+        <v>5265</v>
       </c>
       <c r="K34">
         <v>11</v>
       </c>
       <c r="L34">
-        <v>1329.1</v>
+        <v>1610.7</v>
       </c>
       <c r="M34">
         <v>11</v>
@@ -4387,34 +4390,34 @@
         <v>1.5</v>
       </c>
       <c r="P34">
-        <v>5027</v>
+        <v>5677</v>
       </c>
       <c r="Q34">
-        <v>457</v>
+        <v>516.1</v>
       </c>
       <c r="R34">
-        <v>461.7</v>
+        <v>528.9</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T34">
-        <v>123.5</v>
+        <v>140.5</v>
       </c>
       <c r="U34">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="V34">
-        <v>649.5</v>
+        <v>738</v>
       </c>
       <c r="W34">
-        <v>1294</v>
+        <v>1492</v>
       </c>
       <c r="X34">
         <v>11</v>
       </c>
       <c r="Y34">
-        <v>457</v>
+        <v>516.1</v>
       </c>
       <c r="Z34">
         <v>11</v>
@@ -4426,43 +4429,43 @@
         <v>1.5</v>
       </c>
       <c r="AC34">
-        <v>4260</v>
+        <v>7076</v>
       </c>
       <c r="AD34">
-        <v>387.3</v>
+        <v>643.3</v>
       </c>
       <c r="AE34">
-        <v>472.6</v>
+        <v>597.4</v>
       </c>
       <c r="AF34">
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="AH34">
-        <v>47</v>
+        <v>699</v>
       </c>
       <c r="AI34">
-        <v>717</v>
+        <v>1122</v>
       </c>
       <c r="AJ34">
-        <v>1302</v>
+        <v>1575</v>
       </c>
       <c r="AK34">
         <v>11</v>
       </c>
       <c r="AL34">
-        <v>710</v>
+        <v>707.6</v>
       </c>
       <c r="AM34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AN34">
-        <v>54.5</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AO34">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -4471,34 +4474,34 @@
         <v>27</v>
       </c>
       <c r="C35">
-        <v>6138</v>
+        <v>6676</v>
       </c>
       <c r="D35">
-        <v>2046</v>
+        <v>2225.3</v>
       </c>
       <c r="E35">
-        <v>1823.5</v>
+        <v>1953.3</v>
       </c>
       <c r="F35">
-        <v>217</v>
+        <v>322</v>
       </c>
       <c r="G35">
-        <v>1137</v>
+        <v>1225.5</v>
       </c>
       <c r="H35">
-        <v>2057</v>
+        <v>2129</v>
       </c>
       <c r="I35">
-        <v>2960.5</v>
+        <v>3177</v>
       </c>
       <c r="J35">
-        <v>3864</v>
+        <v>4225</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35">
-        <v>2046</v>
+        <v>2225.3</v>
       </c>
       <c r="M35">
         <v>3</v>
@@ -4510,34 +4513,34 @@
         <v>1.5</v>
       </c>
       <c r="P35">
-        <v>773</v>
+        <v>837</v>
       </c>
       <c r="Q35">
-        <v>257.7</v>
+        <v>279</v>
       </c>
       <c r="R35">
-        <v>201.8</v>
+        <v>224.2</v>
       </c>
       <c r="S35">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="T35">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="U35">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="V35">
-        <v>350</v>
+        <v>377.5</v>
       </c>
       <c r="W35">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="X35">
         <v>3</v>
       </c>
       <c r="Y35">
-        <v>257.7</v>
+        <v>279</v>
       </c>
       <c r="Z35">
         <v>3</v>
@@ -4549,43 +4552,43 @@
         <v>1.5</v>
       </c>
       <c r="AC35">
-        <v>2142</v>
+        <v>2693</v>
       </c>
       <c r="AD35">
-        <v>714</v>
+        <v>897.7</v>
       </c>
       <c r="AE35">
-        <v>709.5</v>
+        <v>895.7</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG35">
-        <v>361.5</v>
+        <v>444</v>
       </c>
       <c r="AH35">
-        <v>723</v>
+        <v>874</v>
       </c>
       <c r="AI35">
-        <v>1071</v>
+        <v>1339.5</v>
       </c>
       <c r="AJ35">
-        <v>1419</v>
+        <v>1805</v>
       </c>
       <c r="AK35">
         <v>3</v>
       </c>
       <c r="AL35">
-        <v>1071</v>
+        <v>897.7</v>
       </c>
       <c r="AM35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN35">
-        <v>66.7</v>
+        <v>100</v>
       </c>
       <c r="AO35">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:41">
@@ -4594,13 +4597,13 @@
         <v>28</v>
       </c>
       <c r="C36">
-        <v>18494</v>
+        <v>21401</v>
       </c>
       <c r="D36">
-        <v>1681.3</v>
+        <v>1945.5</v>
       </c>
       <c r="E36">
-        <v>2483.1</v>
+        <v>2782.3</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4609,19 +4612,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>815</v>
+        <v>1039</v>
       </c>
       <c r="I36">
-        <v>2286</v>
+        <v>2737</v>
       </c>
       <c r="J36">
-        <v>7874</v>
+        <v>8761</v>
       </c>
       <c r="K36">
         <v>11</v>
       </c>
       <c r="L36">
-        <v>2642</v>
+        <v>3057.3</v>
       </c>
       <c r="M36">
         <v>7</v>
@@ -4633,13 +4636,13 @@
         <v>0.2</v>
       </c>
       <c r="P36">
-        <v>4189</v>
+        <v>5000</v>
       </c>
       <c r="Q36">
-        <v>380.8</v>
+        <v>454.5</v>
       </c>
       <c r="R36">
-        <v>599.4</v>
+        <v>725.9</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4648,19 +4651,19 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="V36">
-        <v>493</v>
+        <v>589</v>
       </c>
       <c r="W36">
-        <v>1784</v>
+        <v>2213</v>
       </c>
       <c r="X36">
         <v>11</v>
       </c>
       <c r="Y36">
-        <v>598.4</v>
+        <v>714.3</v>
       </c>
       <c r="Z36">
         <v>7</v>
@@ -4672,43 +4675,43 @@
         <v>0.2</v>
       </c>
       <c r="AC36">
-        <v>8256</v>
+        <v>7789</v>
       </c>
       <c r="AD36">
-        <v>750.5</v>
+        <v>708.1</v>
       </c>
       <c r="AE36">
-        <v>560.6</v>
+        <v>761.8</v>
       </c>
       <c r="AF36">
         <v>0</v>
       </c>
       <c r="AG36">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>761</v>
+        <v>886</v>
       </c>
       <c r="AI36">
-        <v>1072</v>
+        <v>1139</v>
       </c>
       <c r="AJ36">
-        <v>1748</v>
+        <v>2204</v>
       </c>
       <c r="AK36">
         <v>11</v>
       </c>
       <c r="AL36">
-        <v>1032</v>
+        <v>1298.2</v>
       </c>
       <c r="AM36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN36">
-        <v>72.7</v>
+        <v>54.5</v>
       </c>
       <c r="AO36">
-        <v>1.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="37" spans="1:41">
@@ -4717,31 +4720,31 @@
         <v>29</v>
       </c>
       <c r="C37">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="D37">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="F37">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="G37">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="H37">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="I37">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="J37">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>517</v>
+        <v>662</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -4753,31 +4756,31 @@
         <v>1.5</v>
       </c>
       <c r="P37">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="Q37">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="S37">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="T37">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="U37">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="V37">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="W37">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="X37">
         <v>1</v>
       </c>
       <c r="Y37">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -4789,31 +4792,31 @@
         <v>1.5</v>
       </c>
       <c r="AC37">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AD37">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AF37">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AG37">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AH37">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AI37">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AJ37">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AK37">
         <v>1</v>
       </c>
       <c r="AL37">
-        <v>794</v>
+        <v>931</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -4822,7 +4825,7 @@
         <v>100</v>
       </c>
       <c r="AO37">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -4831,13 +4834,13 @@
         <v>30</v>
       </c>
       <c r="C38">
-        <v>40940</v>
+        <v>48486</v>
       </c>
       <c r="D38">
-        <v>1860.9</v>
+        <v>2203.9</v>
       </c>
       <c r="E38">
-        <v>2537.7</v>
+        <v>2981.5</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4846,19 +4849,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>978</v>
+        <v>1171</v>
       </c>
       <c r="I38">
-        <v>2382</v>
+        <v>2943.2</v>
       </c>
       <c r="J38">
-        <v>8682</v>
+        <v>10192</v>
       </c>
       <c r="K38">
         <v>22</v>
       </c>
       <c r="L38">
-        <v>2924.3</v>
+        <v>3463.3</v>
       </c>
       <c r="M38">
         <v>14</v>
@@ -4870,13 +4873,13 @@
         <v>0.2</v>
       </c>
       <c r="P38">
-        <v>23376</v>
+        <v>26758</v>
       </c>
       <c r="Q38">
-        <v>1062.5</v>
+        <v>1216.3</v>
       </c>
       <c r="R38">
-        <v>2805.7</v>
+        <v>3226.1</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4885,19 +4888,19 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="V38">
-        <v>457.5</v>
+        <v>495.5</v>
       </c>
       <c r="W38">
-        <v>9692</v>
+        <v>11140</v>
       </c>
       <c r="X38">
         <v>22</v>
       </c>
       <c r="Y38">
-        <v>1669.7</v>
+        <v>1911.3</v>
       </c>
       <c r="Z38">
         <v>14</v>
@@ -4909,13 +4912,13 @@
         <v>0.2</v>
       </c>
       <c r="AC38">
-        <v>16518</v>
+        <v>9289</v>
       </c>
       <c r="AD38">
-        <v>750.8</v>
+        <v>422.2</v>
       </c>
       <c r="AE38">
-        <v>1327.9</v>
+        <v>665.9</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4924,28 +4927,28 @@
         <v>0</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI38">
-        <v>1291.5</v>
+        <v>503.2</v>
       </c>
       <c r="AJ38">
-        <v>5316</v>
+        <v>1862</v>
       </c>
       <c r="AK38">
         <v>22</v>
       </c>
       <c r="AL38">
-        <v>1651.8</v>
+        <v>844.5</v>
       </c>
       <c r="AM38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN38">
-        <v>45.5</v>
+        <v>50</v>
       </c>
       <c r="AO38">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="39" spans="1:41">
@@ -4954,13 +4957,13 @@
         <v>31</v>
       </c>
       <c r="C39">
-        <v>28324</v>
+        <v>33562</v>
       </c>
       <c r="D39">
-        <v>2360.3</v>
+        <v>2796.8</v>
       </c>
       <c r="E39">
-        <v>3824.9</v>
+        <v>4347.4</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4969,19 +4972,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>733.5</v>
+        <v>804.5</v>
       </c>
       <c r="I39">
-        <v>3342.8</v>
+        <v>4092.2</v>
       </c>
       <c r="J39">
-        <v>13060</v>
+        <v>14651</v>
       </c>
       <c r="K39">
         <v>12</v>
       </c>
       <c r="L39">
-        <v>3540.5</v>
+        <v>4195.2</v>
       </c>
       <c r="M39">
         <v>8</v>
@@ -4993,13 +4996,13 @@
         <v>0.3</v>
       </c>
       <c r="P39">
-        <v>50397</v>
+        <v>52954</v>
       </c>
       <c r="Q39">
-        <v>4199.8</v>
+        <v>4412.8</v>
       </c>
       <c r="R39">
-        <v>13483.5</v>
+        <v>13962.7</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -5008,19 +5011,19 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>197.5</v>
+        <v>234</v>
       </c>
       <c r="V39">
-        <v>490</v>
+        <v>714</v>
       </c>
       <c r="W39">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="X39">
         <v>12</v>
       </c>
       <c r="Y39">
-        <v>6299.6</v>
+        <v>6619.2</v>
       </c>
       <c r="Z39">
         <v>8</v>
@@ -5032,13 +5035,13 @@
         <v>0.3</v>
       </c>
       <c r="AC39">
-        <v>3627</v>
+        <v>4613</v>
       </c>
       <c r="AD39">
-        <v>302.2</v>
+        <v>384.4</v>
       </c>
       <c r="AE39">
-        <v>455.8</v>
+        <v>556.8</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -5047,28 +5050,28 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI39">
-        <v>666.2</v>
+        <v>749.2</v>
       </c>
       <c r="AJ39">
-        <v>1091</v>
+        <v>1486</v>
       </c>
       <c r="AK39">
         <v>12</v>
       </c>
       <c r="AL39">
-        <v>725.4</v>
+        <v>768.8</v>
       </c>
       <c r="AM39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN39">
-        <v>41.7</v>
+        <v>50</v>
       </c>
       <c r="AO39">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -5077,34 +5080,34 @@
         <v>32</v>
       </c>
       <c r="C40">
-        <v>1423</v>
+        <v>1654</v>
       </c>
       <c r="D40">
-        <v>474.3</v>
+        <v>551.3</v>
       </c>
       <c r="E40">
-        <v>84.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="F40">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="G40">
-        <v>435.5</v>
+        <v>502</v>
       </c>
       <c r="H40">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="I40">
-        <v>519</v>
+        <v>599</v>
       </c>
       <c r="J40">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="K40">
         <v>3</v>
       </c>
       <c r="L40">
-        <v>474.3</v>
+        <v>551.3</v>
       </c>
       <c r="M40">
         <v>3</v>
@@ -5116,34 +5119,34 @@
         <v>1.5</v>
       </c>
       <c r="P40">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="Q40">
-        <v>56.7</v>
+        <v>65.3</v>
       </c>
       <c r="R40">
-        <v>12.4</v>
+        <v>15.3</v>
       </c>
       <c r="S40">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="T40">
-        <v>49.5</v>
+        <v>56.5</v>
       </c>
       <c r="U40">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="V40">
-        <v>60.5</v>
+        <v>70</v>
       </c>
       <c r="W40">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="X40">
         <v>3</v>
       </c>
       <c r="Y40">
-        <v>56.7</v>
+        <v>65.3</v>
       </c>
       <c r="Z40">
         <v>3</v>
@@ -5155,43 +5158,43 @@
         <v>1.5</v>
       </c>
       <c r="AC40">
-        <v>923</v>
+        <v>1405</v>
       </c>
       <c r="AD40">
-        <v>307.7</v>
+        <v>468.3</v>
       </c>
       <c r="AE40">
-        <v>532.9</v>
+        <v>630.7</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>109.5</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AI40">
-        <v>461.5</v>
+        <v>701.5</v>
       </c>
       <c r="AJ40">
-        <v>923</v>
+        <v>1186</v>
       </c>
       <c r="AK40">
         <v>3</v>
       </c>
       <c r="AL40">
-        <v>923</v>
+        <v>468.3</v>
       </c>
       <c r="AM40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN40">
-        <v>33.3</v>
+        <v>100</v>
       </c>
       <c r="AO40">
-        <v>-0.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="1:41">
@@ -5200,13 +5203,13 @@
         <v>33</v>
       </c>
       <c r="C41">
-        <v>4792</v>
+        <v>5607</v>
       </c>
       <c r="D41">
-        <v>958.4</v>
+        <v>1121.4</v>
       </c>
       <c r="E41">
-        <v>1362.2</v>
+        <v>1620.1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5215,19 +5218,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="I41">
-        <v>1419</v>
+        <v>1605</v>
       </c>
       <c r="J41">
-        <v>3155</v>
+        <v>3762</v>
       </c>
       <c r="K41">
         <v>5</v>
       </c>
       <c r="L41">
-        <v>1597.3</v>
+        <v>1869</v>
       </c>
       <c r="M41">
         <v>3</v>
@@ -5239,13 +5242,13 @@
         <v>0.1</v>
       </c>
       <c r="P41">
-        <v>1418</v>
+        <v>1594</v>
       </c>
       <c r="Q41">
-        <v>283.6</v>
+        <v>318.8</v>
       </c>
       <c r="R41">
-        <v>537.6</v>
+        <v>598.8</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -5257,16 +5260,16 @@
         <v>7</v>
       </c>
       <c r="V41">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="W41">
-        <v>1236</v>
+        <v>1378</v>
       </c>
       <c r="X41">
         <v>5</v>
       </c>
       <c r="Y41">
-        <v>472.7</v>
+        <v>531.3</v>
       </c>
       <c r="Z41">
         <v>3</v>
@@ -5278,13 +5281,13 @@
         <v>0.1</v>
       </c>
       <c r="AC41">
-        <v>3056</v>
+        <v>2097</v>
       </c>
       <c r="AD41">
-        <v>611.2</v>
+        <v>419.4</v>
       </c>
       <c r="AE41">
-        <v>621.9</v>
+        <v>492.9</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -5293,19 +5296,19 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>669</v>
+        <v>219</v>
       </c>
       <c r="AI41">
-        <v>950</v>
+        <v>798</v>
       </c>
       <c r="AJ41">
-        <v>1437</v>
+        <v>1080</v>
       </c>
       <c r="AK41">
         <v>5</v>
       </c>
       <c r="AL41">
-        <v>1018.7</v>
+        <v>699</v>
       </c>
       <c r="AM41">
         <v>3</v>
@@ -5314,7 +5317,7 @@
         <v>60</v>
       </c>
       <c r="AO41">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:41">
@@ -5323,34 +5326,34 @@
         <v>34</v>
       </c>
       <c r="C42">
-        <v>6592</v>
+        <v>8049</v>
       </c>
       <c r="D42">
-        <v>1318.4</v>
+        <v>1609.8</v>
       </c>
       <c r="E42">
-        <v>805.2</v>
+        <v>1036</v>
       </c>
       <c r="F42">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G42">
-        <v>1014</v>
+        <v>1178</v>
       </c>
       <c r="H42">
-        <v>1327</v>
+        <v>1523</v>
       </c>
       <c r="I42">
-        <v>1904</v>
+        <v>2523</v>
       </c>
       <c r="J42">
-        <v>2202</v>
+        <v>2675</v>
       </c>
       <c r="K42">
         <v>5</v>
       </c>
       <c r="L42">
-        <v>1318.4</v>
+        <v>1609.8</v>
       </c>
       <c r="M42">
         <v>5</v>
@@ -5362,34 +5365,34 @@
         <v>1.5</v>
       </c>
       <c r="P42">
-        <v>967</v>
+        <v>1171</v>
       </c>
       <c r="Q42">
-        <v>193.4</v>
+        <v>234.2</v>
       </c>
       <c r="R42">
-        <v>129.3</v>
+        <v>166.1</v>
       </c>
       <c r="S42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T42">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="U42">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="V42">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="W42">
-        <v>326</v>
+        <v>408</v>
       </c>
       <c r="X42">
         <v>5</v>
       </c>
       <c r="Y42">
-        <v>193.4</v>
+        <v>234.2</v>
       </c>
       <c r="Z42">
         <v>5</v>
@@ -5401,34 +5404,34 @@
         <v>1.5</v>
       </c>
       <c r="AC42">
-        <v>5610</v>
+        <v>6999</v>
       </c>
       <c r="AD42">
-        <v>1122</v>
+        <v>1399.8</v>
       </c>
       <c r="AE42">
-        <v>343.5</v>
+        <v>355.4</v>
       </c>
       <c r="AF42">
-        <v>860</v>
+        <v>1140</v>
       </c>
       <c r="AG42">
-        <v>860</v>
+        <v>1140</v>
       </c>
       <c r="AH42">
-        <v>895</v>
+        <v>1146</v>
       </c>
       <c r="AI42">
-        <v>1473</v>
+        <v>1728</v>
       </c>
       <c r="AJ42">
-        <v>1522</v>
+        <v>1845</v>
       </c>
       <c r="AK42">
         <v>5</v>
       </c>
       <c r="AL42">
-        <v>1122</v>
+        <v>1399.8</v>
       </c>
       <c r="AM42">
         <v>5</v>
@@ -5437,7 +5440,7 @@
         <v>100</v>
       </c>
       <c r="AO42">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -5446,13 +5449,13 @@
         <v>35</v>
       </c>
       <c r="C43">
-        <v>7420</v>
+        <v>8545</v>
       </c>
       <c r="D43">
-        <v>1484</v>
+        <v>1709</v>
       </c>
       <c r="E43">
-        <v>2038.3</v>
+        <v>2343.9</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5464,16 +5467,16 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>3484</v>
+        <v>4086</v>
       </c>
       <c r="J43">
-        <v>3936</v>
+        <v>4459</v>
       </c>
       <c r="K43">
         <v>5</v>
       </c>
       <c r="L43">
-        <v>3710</v>
+        <v>4272.5</v>
       </c>
       <c r="M43">
         <v>2</v>
@@ -5482,16 +5485,16 @@
         <v>40</v>
       </c>
       <c r="O43">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="P43">
-        <v>2103</v>
+        <v>2298</v>
       </c>
       <c r="Q43">
-        <v>420.6</v>
+        <v>459.6</v>
       </c>
       <c r="R43">
-        <v>596.7</v>
+        <v>655.2</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5503,16 +5506,16 @@
         <v>0</v>
       </c>
       <c r="V43">
-        <v>831</v>
+        <v>891</v>
       </c>
       <c r="W43">
-        <v>1272</v>
+        <v>1407</v>
       </c>
       <c r="X43">
         <v>5</v>
       </c>
       <c r="Y43">
-        <v>1051.5</v>
+        <v>1149</v>
       </c>
       <c r="Z43">
         <v>2</v>
@@ -5524,13 +5527,13 @@
         <v>-0.6</v>
       </c>
       <c r="AC43">
-        <v>722</v>
+        <v>1916</v>
       </c>
       <c r="AD43">
-        <v>144.4</v>
+        <v>383.2</v>
       </c>
       <c r="AE43">
-        <v>198.3</v>
+        <v>648.5</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -5542,16 +5545,16 @@
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="AJ43">
-        <v>382</v>
+        <v>1497</v>
       </c>
       <c r="AK43">
         <v>5</v>
       </c>
       <c r="AL43">
-        <v>361</v>
+        <v>958</v>
       </c>
       <c r="AM43">
         <v>2</v>
@@ -5560,7 +5563,7 @@
         <v>40</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="44" spans="1:41">
@@ -5607,31 +5610,31 @@
         <v>1.5</v>
       </c>
       <c r="P44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X44">
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z44">
         <v>1</v>
@@ -5643,37 +5646,40 @@
         <v>1.5</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AJ44">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="AK44">
         <v>1</v>
       </c>
+      <c r="AL44">
+        <v>171</v>
+      </c>
       <c r="AM44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO44">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:41">
@@ -5787,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="AO45">
-        <v>-1.5</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -5796,13 +5802,13 @@
         <v>24</v>
       </c>
       <c r="C46">
-        <v>3551</v>
+        <v>4461</v>
       </c>
       <c r="D46">
-        <v>355.1</v>
+        <v>446.1</v>
       </c>
       <c r="E46">
-        <v>1061.1</v>
+        <v>1345.9</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5817,13 +5823,13 @@
         <v>2.5</v>
       </c>
       <c r="J46">
-        <v>3371</v>
+        <v>4273</v>
       </c>
       <c r="K46">
         <v>10</v>
       </c>
       <c r="L46">
-        <v>887.8</v>
+        <v>1115.2</v>
       </c>
       <c r="M46">
         <v>4</v>
@@ -5832,16 +5838,16 @@
         <v>40</v>
       </c>
       <c r="O46">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="P46">
-        <v>661</v>
+        <v>787</v>
       </c>
       <c r="Q46">
-        <v>66.09999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="R46">
-        <v>204.5</v>
+        <v>244</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5853,16 +5859,16 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="W46">
-        <v>648</v>
+        <v>773</v>
       </c>
       <c r="X46">
         <v>10</v>
       </c>
       <c r="Y46">
-        <v>165.2</v>
+        <v>196.8</v>
       </c>
       <c r="Z46">
         <v>4</v>
@@ -5874,13 +5880,13 @@
         <v>-0.6</v>
       </c>
       <c r="AC46">
-        <v>1735</v>
+        <v>5198</v>
       </c>
       <c r="AD46">
-        <v>173.5</v>
+        <v>519.8</v>
       </c>
       <c r="AE46">
-        <v>548.7</v>
+        <v>915.9</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -5889,28 +5895,28 @@
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>580.5</v>
       </c>
       <c r="AJ46">
-        <v>1735</v>
+        <v>2251</v>
       </c>
       <c r="AK46">
         <v>10</v>
       </c>
       <c r="AL46">
-        <v>1735</v>
+        <v>866.3</v>
       </c>
       <c r="AM46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN46">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AO46">
-        <v>-1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:41">
@@ -6015,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="AO47">
-        <v>-1.5</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -6096,34 +6102,34 @@
         <v>-2.1</v>
       </c>
       <c r="AC48">
-        <v>484</v>
+        <v>639</v>
       </c>
       <c r="AD48">
-        <v>161.3</v>
+        <v>213</v>
       </c>
       <c r="AE48">
-        <v>139.8</v>
+        <v>184.7</v>
       </c>
       <c r="AF48">
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>119</v>
+        <v>155.5</v>
       </c>
       <c r="AH48">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="AI48">
-        <v>242</v>
+        <v>319.5</v>
       </c>
       <c r="AJ48">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="AK48">
         <v>3</v>
       </c>
       <c r="AL48">
-        <v>242</v>
+        <v>319.5</v>
       </c>
       <c r="AM48">
         <v>2</v>
@@ -6132,7 +6138,7 @@
         <v>66.7</v>
       </c>
       <c r="AO48">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -6141,31 +6147,31 @@
         <v>28</v>
       </c>
       <c r="C49">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="D49">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="F49">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="G49">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="H49">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="I49">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="J49">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>638</v>
+        <v>1180</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -6177,31 +6183,31 @@
         <v>1.5</v>
       </c>
       <c r="P49">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="Q49">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="S49">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="T49">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="U49">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="V49">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="W49">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
       <c r="Y49">
-        <v>456</v>
+        <v>1010</v>
       </c>
       <c r="Z49">
         <v>1</v>
@@ -6243,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="AO49">
-        <v>-1.5</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -6252,13 +6258,13 @@
         <v>29</v>
       </c>
       <c r="C50">
-        <v>5033</v>
+        <v>6181</v>
       </c>
       <c r="D50">
-        <v>838.8</v>
+        <v>1030.2</v>
       </c>
       <c r="E50">
-        <v>2012.4</v>
+        <v>2477.6</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6270,16 +6276,16 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>65.2</v>
+        <v>70.5</v>
       </c>
       <c r="J50">
-        <v>4946</v>
+        <v>6087</v>
       </c>
       <c r="K50">
         <v>6</v>
       </c>
       <c r="L50">
-        <v>2516.5</v>
+        <v>3090.5</v>
       </c>
       <c r="M50">
         <v>2</v>
@@ -6291,13 +6297,13 @@
         <v>-0.9</v>
       </c>
       <c r="P50">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="Q50">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="R50">
-        <v>65.2</v>
+        <v>87.2</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -6312,13 +6318,13 @@
         <v>5.2</v>
       </c>
       <c r="W50">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="X50">
         <v>6</v>
       </c>
       <c r="Y50">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="Z50">
         <v>2</v>
@@ -6330,13 +6336,13 @@
         <v>-0.9</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>1496</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>249.3</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>483.6</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -6348,22 +6354,25 @@
         <v>0</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="AK50">
         <v>6</v>
       </c>
+      <c r="AL50">
+        <v>748</v>
+      </c>
       <c r="AM50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="AO50">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -6372,13 +6381,13 @@
         <v>30</v>
       </c>
       <c r="C51">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="D51">
-        <v>79.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="E51">
-        <v>177.1</v>
+        <v>206.6</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -6393,13 +6402,13 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="K51">
         <v>5</v>
       </c>
       <c r="L51">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -6411,13 +6420,13 @@
         <v>-1.4</v>
       </c>
       <c r="P51">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q51">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="R51">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -6432,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="X51">
         <v>5</v>
       </c>
       <c r="Y51">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Z51">
         <v>1</v>
@@ -6450,13 +6459,13 @@
         <v>-1.4</v>
       </c>
       <c r="AC51">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AD51">
-        <v>30.2</v>
+        <v>34.4</v>
       </c>
       <c r="AE51">
-        <v>67.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -6471,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="AJ51">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AK51">
         <v>5</v>
       </c>
       <c r="AL51">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AM51">
         <v>1</v>
@@ -6486,7 +6495,7 @@
         <v>20</v>
       </c>
       <c r="AO51">
-        <v>-0.7</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -6495,13 +6504,13 @@
         <v>31</v>
       </c>
       <c r="C52">
-        <v>5519</v>
+        <v>7711</v>
       </c>
       <c r="D52">
-        <v>788.4</v>
+        <v>1101.6</v>
       </c>
       <c r="E52">
-        <v>1573.6</v>
+        <v>2273.8</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -6510,19 +6519,19 @@
         <v>3</v>
       </c>
       <c r="H52">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I52">
-        <v>594</v>
+        <v>741</v>
       </c>
       <c r="J52">
-        <v>4250</v>
+        <v>6144</v>
       </c>
       <c r="K52">
         <v>7</v>
       </c>
       <c r="L52">
-        <v>1103.8</v>
+        <v>1542.2</v>
       </c>
       <c r="M52">
         <v>5</v>
@@ -6534,82 +6543,82 @@
         <v>0.5</v>
       </c>
       <c r="P52">
-        <v>968</v>
+        <v>1265</v>
       </c>
       <c r="Q52">
-        <v>138.3</v>
+        <v>180.7</v>
       </c>
       <c r="R52">
-        <v>184.4</v>
+        <v>258.5</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U52">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="V52">
-        <v>210.5</v>
+        <v>243</v>
       </c>
       <c r="W52">
-        <v>478</v>
+        <v>691</v>
       </c>
       <c r="X52">
         <v>7</v>
       </c>
       <c r="Y52">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="Z52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA52">
-        <v>57.1</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AB52">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AC52">
-        <v>1942</v>
+        <v>3524</v>
       </c>
       <c r="AD52">
-        <v>277.4</v>
+        <v>503.4</v>
       </c>
       <c r="AE52">
-        <v>543.4</v>
+        <v>962.1</v>
       </c>
       <c r="AF52">
         <v>0</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AI52">
-        <v>228.5</v>
+        <v>272.5</v>
       </c>
       <c r="AJ52">
-        <v>1485</v>
+        <v>2668</v>
       </c>
       <c r="AK52">
         <v>7</v>
       </c>
       <c r="AL52">
-        <v>647.3</v>
+        <v>704.8</v>
       </c>
       <c r="AM52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN52">
-        <v>42.9</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AO52">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -6618,13 +6627,13 @@
         <v>32</v>
       </c>
       <c r="C53">
-        <v>2299</v>
+        <v>2357</v>
       </c>
       <c r="D53">
-        <v>383.2</v>
+        <v>392.8</v>
       </c>
       <c r="E53">
-        <v>699.8</v>
+        <v>712.3</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -6633,19 +6642,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
       <c r="I53">
-        <v>384.5</v>
+        <v>402.8</v>
       </c>
       <c r="J53">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="K53">
         <v>6</v>
       </c>
       <c r="L53">
-        <v>766.3</v>
+        <v>785.7</v>
       </c>
       <c r="M53">
         <v>3</v>
@@ -6657,13 +6666,13 @@
         <v>-0.3</v>
       </c>
       <c r="P53">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q53">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="R53">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -6672,19 +6681,19 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V53">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W53">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X53">
         <v>6</v>
       </c>
       <c r="Y53">
-        <v>17.7</v>
+        <v>18.7</v>
       </c>
       <c r="Z53">
         <v>3</v>
@@ -6696,13 +6705,13 @@
         <v>-0.3</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>38.2</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -6711,25 +6720,28 @@
         <v>0</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AK53">
         <v>6</v>
       </c>
+      <c r="AL53">
+        <v>76.3</v>
+      </c>
       <c r="AM53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO53">
-        <v>-1.5</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -6738,13 +6750,13 @@
         <v>33</v>
       </c>
       <c r="C54">
-        <v>1047</v>
+        <v>1292</v>
       </c>
       <c r="D54">
-        <v>116.3</v>
+        <v>143.6</v>
       </c>
       <c r="E54">
-        <v>228.5</v>
+        <v>301.8</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -6756,16 +6768,16 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J54">
-        <v>670</v>
+        <v>906</v>
       </c>
       <c r="K54">
         <v>9</v>
       </c>
       <c r="L54">
-        <v>261.8</v>
+        <v>323</v>
       </c>
       <c r="M54">
         <v>4</v>
@@ -6777,13 +6789,13 @@
         <v>-0.5</v>
       </c>
       <c r="P54">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="Q54">
-        <v>42.4</v>
+        <v>45.8</v>
       </c>
       <c r="R54">
-        <v>94.8</v>
+        <v>104.5</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -6795,16 +6807,16 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W54">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="X54">
         <v>9</v>
       </c>
       <c r="Y54">
-        <v>127.3</v>
+        <v>137.3</v>
       </c>
       <c r="Z54">
         <v>3</v>
@@ -6816,43 +6828,43 @@
         <v>-0.9</v>
       </c>
       <c r="AC54">
-        <v>2286</v>
+        <v>3001</v>
       </c>
       <c r="AD54">
-        <v>254</v>
+        <v>333.4</v>
       </c>
       <c r="AE54">
-        <v>333.6</v>
+        <v>450.5</v>
       </c>
       <c r="AF54">
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AH54">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="AI54">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="AJ54">
-        <v>965</v>
+        <v>1398</v>
       </c>
       <c r="AK54">
         <v>9</v>
       </c>
       <c r="AL54">
-        <v>457.2</v>
+        <v>375.1</v>
       </c>
       <c r="AM54">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AN54">
-        <v>55.6</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AO54">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -6957,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="AO55">
-        <v>-1.5</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -6966,34 +6978,34 @@
         <v>35</v>
       </c>
       <c r="C56">
-        <v>1615</v>
+        <v>1726</v>
       </c>
       <c r="D56">
-        <v>807.5</v>
+        <v>863</v>
       </c>
       <c r="E56">
-        <v>1142</v>
+        <v>1220.5</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>403.8</v>
+        <v>431.5</v>
       </c>
       <c r="H56">
-        <v>807.5</v>
+        <v>863</v>
       </c>
       <c r="I56">
-        <v>1211.2</v>
+        <v>1294.5</v>
       </c>
       <c r="J56">
-        <v>1615</v>
+        <v>1726</v>
       </c>
       <c r="K56">
         <v>2</v>
       </c>
       <c r="L56">
-        <v>1615</v>
+        <v>1726</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -7005,34 +7017,34 @@
         <v>-0.3</v>
       </c>
       <c r="P56">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q56">
-        <v>57</v>
+        <v>60.5</v>
       </c>
       <c r="R56">
-        <v>80.59999999999999</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56">
-        <v>28.5</v>
+        <v>30.2</v>
       </c>
       <c r="U56">
-        <v>57</v>
+        <v>60.5</v>
       </c>
       <c r="V56">
-        <v>85.5</v>
+        <v>90.8</v>
       </c>
       <c r="W56">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="X56">
         <v>2</v>
       </c>
       <c r="Y56">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Z56">
         <v>1</v>
@@ -7044,34 +7056,34 @@
         <v>-0.3</v>
       </c>
       <c r="AC56">
-        <v>628</v>
+        <v>748</v>
       </c>
       <c r="AD56">
-        <v>314</v>
+        <v>374</v>
       </c>
       <c r="AE56">
-        <v>444.1</v>
+        <v>528.9</v>
       </c>
       <c r="AF56">
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="AH56">
-        <v>314</v>
+        <v>374</v>
       </c>
       <c r="AI56">
-        <v>471</v>
+        <v>561</v>
       </c>
       <c r="AJ56">
-        <v>628</v>
+        <v>748</v>
       </c>
       <c r="AK56">
         <v>2</v>
       </c>
       <c r="AL56">
-        <v>628</v>
+        <v>748</v>
       </c>
       <c r="AM56">
         <v>1</v>
@@ -7080,7 +7092,7 @@
         <v>50</v>
       </c>
       <c r="AO56">
-        <v>0.4</v>
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
